--- a/sql/GPA_Corods.xlsx
+++ b/sql/GPA_Corods.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neil\source\repos\ka-member\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4C94EC94-4721-4330-AB31-A893C902BD4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7312C459-028C-4889-8F80-C62D37719AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="90" windowWidth="28770" windowHeight="17280"/>
+    <workbookView xWindow="7905" yWindow="2475" windowWidth="28770" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>idmember</t>
   </si>
@@ -30,11 +41,17 @@
   <si>
     <t>gpslng1</t>
   </si>
+  <si>
+    <t>gpslat2</t>
+  </si>
+  <si>
+    <t>gpslng2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -868,16 +885,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D748"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q748"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A707" workbookViewId="0">
-      <selection activeCell="I721" sqref="I721"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -887,8 +904,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -902,8 +928,21 @@
         <f>"UPDATE member SET gpslat1="&amp;B2&amp;", gpslng1="&amp;C2&amp;" WHERE idmember = "&amp;A2&amp;";"</f>
         <v>UPDATE member SET gpslat1=51.500232, gpslng1=-0.168663 WHERE idmember = 1;</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>51.502094999999997</v>
+      </c>
+      <c r="P2">
+        <v>-0.16295699999999999</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>"UPDATE member SET gpslat2="&amp;O2&amp;", gpslng2="&amp;P2&amp;" WHERE idmember = "&amp;N2&amp;";"</f>
+        <v>UPDATE member SET gpslat2=51.502095, gpslng2=-0.162957 WHERE idmember = 2;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -917,8 +956,21 @@
         <f t="shared" ref="D3:D66" si="0">"UPDATE member SET gpslat1="&amp;B3&amp;", gpslng1="&amp;C3&amp;" WHERE idmember = "&amp;A3&amp;";"</f>
         <v>UPDATE member SET gpslat1=51.522453, gpslng1=-0.153448 WHERE idmember = 2;</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>16</v>
+      </c>
+      <c r="O3">
+        <v>51.488272000000002</v>
+      </c>
+      <c r="P3">
+        <v>-0.11915199999999999</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q23" si="1">"UPDATE member SET gpslat2="&amp;O3&amp;", gpslng2="&amp;P3&amp;" WHERE idmember = "&amp;N3&amp;";"</f>
+        <v>UPDATE member SET gpslat2=51.488272, gpslng2=-0.119152 WHERE idmember = 16;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -932,8 +984,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=51.500574, gpslng1=-0.179768 WHERE idmember = 3;</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>41</v>
+      </c>
+      <c r="O4">
+        <v>51.492134999999998</v>
+      </c>
+      <c r="P4">
+        <v>-0.16533900000000001</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.492135, gpslng2=-0.165339 WHERE idmember = 41;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -947,8 +1012,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=51.497741, gpslng1=-0.168866 WHERE idmember = 4;</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>49</v>
+      </c>
+      <c r="O5">
+        <v>51.501441</v>
+      </c>
+      <c r="P5">
+        <v>-0.16761599999999999</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.501441, gpslng2=-0.167616 WHERE idmember = 49;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -962,8 +1040,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=51.49997, gpslng1=-0.171616 WHERE idmember = 5;</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>63</v>
+      </c>
+      <c r="O6">
+        <v>51.390858000000001</v>
+      </c>
+      <c r="P6">
+        <v>-2.8334579999999998</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.390858, gpslng2=-2.833458 WHERE idmember = 63;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -977,8 +1068,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=51.487436, gpslng1=-0.222181 WHERE idmember = 6;</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>67</v>
+      </c>
+      <c r="O7">
+        <v>51.488270999999997</v>
+      </c>
+      <c r="P7">
+        <v>-0.167104</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.488271, gpslng2=-0.167104 WHERE idmember = 67;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -992,8 +1096,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=51.49897, gpslng1=-0.167581 WHERE idmember = 7;</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>92</v>
+      </c>
+      <c r="O8">
+        <v>51.496377000000003</v>
+      </c>
+      <c r="P8">
+        <v>-0.16850000000000001</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.496377, gpslng2=-0.1685 WHERE idmember = 92;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1007,8 +1124,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=52.113195, gpslng1=-2.004633 WHERE idmember = 8;</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>159</v>
+      </c>
+      <c r="O9">
+        <v>51.498786000000003</v>
+      </c>
+      <c r="P9">
+        <v>-0.166383</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.498786, gpslng2=-0.166383 WHERE idmember = 159;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1022,8 +1152,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=51.503081, gpslng1=-0.207648 WHERE idmember = 9;</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>204</v>
+      </c>
+      <c r="O10">
+        <v>51.496735999999999</v>
+      </c>
+      <c r="P10">
+        <v>-0.15374699999999999</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.496736, gpslng2=-0.153747 WHERE idmember = 204;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1037,8 +1180,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=51.589297, gpslng1=-0.400901 WHERE idmember = 10;</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>227</v>
+      </c>
+      <c r="O11">
+        <v>51.499377000000003</v>
+      </c>
+      <c r="P11">
+        <v>-0.171183</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.499377, gpslng2=-0.171183 WHERE idmember = 227;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1052,8 +1208,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=51.500869, gpslng1=-0.157382 WHERE idmember = 11;</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>249</v>
+      </c>
+      <c r="O12">
+        <v>51.491042</v>
+      </c>
+      <c r="P12">
+        <v>-0.17596100000000001</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.491042, gpslng2=-0.175961 WHERE idmember = 249;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1067,8 +1236,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=51.498156, gpslng1=-0.169211 WHERE idmember = 12;</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>301</v>
+      </c>
+      <c r="O13">
+        <v>51.499355999999999</v>
+      </c>
+      <c r="P13">
+        <v>-0.165627</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.499356, gpslng2=-0.165627 WHERE idmember = 301;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1082,8 +1264,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=51.499752, gpslng1=-0.1674 WHERE idmember = 13;</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>311</v>
+      </c>
+      <c r="O14">
+        <v>51.498573999999998</v>
+      </c>
+      <c r="P14">
+        <v>-0.16789599999999999</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.498574, gpslng2=-0.167896 WHERE idmember = 311;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1097,8 +1292,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=51.499093, gpslng1=-0.169864 WHERE idmember = 14;</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>331</v>
+      </c>
+      <c r="O15">
+        <v>51.495908</v>
+      </c>
+      <c r="P15">
+        <v>-0.163831</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.495908, gpslng2=-0.163831 WHERE idmember = 331;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1112,8 +1320,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=51.499332, gpslng1=-0.168495 WHERE idmember = 15;</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>419</v>
+      </c>
+      <c r="O16">
+        <v>51.499975999999997</v>
+      </c>
+      <c r="P16">
+        <v>-0.170511</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.499976, gpslng2=-0.170511 WHERE idmember = 419;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1127,8 +1348,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=51.864967, gpslng1=-2.245533 WHERE idmember = 16;</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>433</v>
+      </c>
+      <c r="O17">
+        <v>51.477848000000002</v>
+      </c>
+      <c r="P17">
+        <v>-2.6311550000000001</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.477848, gpslng2=-2.631155 WHERE idmember = 433;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1142,8 +1376,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=51.497362, gpslng1=-0.185943 WHERE idmember = 17;</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>460</v>
+      </c>
+      <c r="O18">
+        <v>51.501342999999999</v>
+      </c>
+      <c r="P18">
+        <v>-0.163962</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.501343, gpslng2=-0.163962 WHERE idmember = 460;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1157,8 +1404,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=51.498725, gpslng1=-0.171551 WHERE idmember = 18;</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>511</v>
+      </c>
+      <c r="O19">
+        <v>51.500179000000003</v>
+      </c>
+      <c r="P19">
+        <v>-0.164183</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.500179, gpslng2=-0.164183 WHERE idmember = 511;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -1172,8 +1432,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=51.501361, gpslng1=-0.175121 WHERE idmember = 20;</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>533</v>
+      </c>
+      <c r="O20">
+        <v>51.496960000000001</v>
+      </c>
+      <c r="P20">
+        <v>-0.16436100000000001</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.49696, gpslng2=-0.164361 WHERE idmember = 533;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
@@ -1187,8 +1460,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=51.499637, gpslng1=-0.167121 WHERE idmember = 22;</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>617</v>
+      </c>
+      <c r="O21">
+        <v>51.49906</v>
+      </c>
+      <c r="P21">
+        <v>-0.167188</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.49906, gpslng2=-0.167188 WHERE idmember = 617;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23</v>
       </c>
@@ -1202,8 +1488,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=51.498437, gpslng1=-0.164558 WHERE idmember = 23;</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>660</v>
+      </c>
+      <c r="O22">
+        <v>51.496442000000002</v>
+      </c>
+      <c r="P22">
+        <v>-0.16878199999999999</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.496442, gpslng2=-0.168782 WHERE idmember = 660;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
@@ -1217,8 +1516,21 @@
         <f t="shared" si="0"/>
         <v>UPDATE member SET gpslat1=51.498908, gpslng1=-0.16742 WHERE idmember = 24;</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>702</v>
+      </c>
+      <c r="O23">
+        <v>51.500433999999998</v>
+      </c>
+      <c r="P23">
+        <v>-0.163942</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE member SET gpslat2=51.500434, gpslng2=-0.163942 WHERE idmember = 702;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25</v>
       </c>
@@ -1233,7 +1545,7 @@
         <v>UPDATE member SET gpslat1=51.500148, gpslng1=-0.164749 WHERE idmember = 25;</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26</v>
       </c>
@@ -1248,7 +1560,7 @@
         <v>UPDATE member SET gpslat1=51.499934, gpslng1=-0.165408 WHERE idmember = 26;</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27</v>
       </c>
@@ -1263,7 +1575,7 @@
         <v>UPDATE member SET gpslat1=51.499447, gpslng1=-0.166484 WHERE idmember = 27;</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>28</v>
       </c>
@@ -1278,7 +1590,7 @@
         <v>UPDATE member SET gpslat1=51.501179, gpslng1=-0.166689 WHERE idmember = 28;</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>29</v>
       </c>
@@ -1293,7 +1605,7 @@
         <v>UPDATE member SET gpslat1=51.500208, gpslng1=-0.165513 WHERE idmember = 29;</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -1308,7 +1620,7 @@
         <v>UPDATE member SET gpslat1=51.49997, gpslng1=-0.171616 WHERE idmember = 30;</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
@@ -1323,7 +1635,7 @@
         <v>UPDATE member SET gpslat1=51.059105, gpslng1=-1.315237 WHERE idmember = 31;</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>32</v>
       </c>
@@ -1338,7 +1650,7 @@
         <v>UPDATE member SET gpslat1=51.501576, gpslng1=-0.162177 WHERE idmember = 32;</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>33</v>
       </c>
@@ -1874,7 +2186,7 @@
         <v>-0.17916499999999999</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D130" si="1">"UPDATE member SET gpslat1="&amp;B67&amp;", gpslng1="&amp;C67&amp;" WHERE idmember = "&amp;A67&amp;";"</f>
+        <f t="shared" ref="D67:D130" si="2">"UPDATE member SET gpslat1="&amp;B67&amp;", gpslng1="&amp;C67&amp;" WHERE idmember = "&amp;A67&amp;";"</f>
         <v>UPDATE member SET gpslat1=51.506987, gpslng1=-0.179165 WHERE idmember = 70;</v>
       </c>
     </row>
@@ -1889,7 +2201,7 @@
         <v>14.494158000000001</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=35.921275, gpslng1=14.494158 WHERE idmember = 71;</v>
       </c>
     </row>
@@ -1904,7 +2216,7 @@
         <v>-0.168736</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.496676, gpslng1=-0.168736 WHERE idmember = 72;</v>
       </c>
     </row>
@@ -1919,7 +2231,7 @@
         <v>-0.16913600000000001</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.501361, gpslng1=-0.169136 WHERE idmember = 74;</v>
       </c>
     </row>
@@ -1934,7 +2246,7 @@
         <v>-0.16469300000000001</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.500685, gpslng1=-0.164693 WHERE idmember = 75;</v>
       </c>
     </row>
@@ -1949,7 +2261,7 @@
         <v>-0.16975899999999999</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.499934, gpslng1=-0.169759 WHERE idmember = 76;</v>
       </c>
     </row>
@@ -1964,7 +2276,7 @@
         <v>-0.16494900000000001</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.501282, gpslng1=-0.164949 WHERE idmember = 77;</v>
       </c>
     </row>
@@ -1979,7 +2291,7 @@
         <v>-0.15743299999999999</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.494089, gpslng1=-0.157433 WHERE idmember = 78;</v>
       </c>
     </row>
@@ -1994,7 +2306,7 @@
         <v>-0.17155200000000001</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.498807, gpslng1=-0.171552 WHERE idmember = 79;</v>
       </c>
     </row>
@@ -2009,7 +2321,7 @@
         <v>-0.163962</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.501343, gpslng1=-0.163962 WHERE idmember = 80;</v>
       </c>
     </row>
@@ -2024,7 +2336,7 @@
         <v>-0.165072</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.500069, gpslng1=-0.165072 WHERE idmember = 81;</v>
       </c>
     </row>
@@ -2039,7 +2351,7 @@
         <v>-0.17161599999999999</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.49997, gpslng1=-0.171616 WHERE idmember = 82;</v>
       </c>
     </row>
@@ -2054,7 +2366,7 @@
         <v>-0.167657</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.501116, gpslng1=-0.167657 WHERE idmember = 83;</v>
       </c>
     </row>
@@ -2069,7 +2381,7 @@
         <v>-0.16415399999999999</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.498169, gpslng1=-0.164154 WHERE idmember = 84;</v>
       </c>
     </row>
@@ -2084,7 +2396,7 @@
         <v>-0.16392799999999999</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.496988, gpslng1=-0.163928 WHERE idmember = 85;</v>
       </c>
     </row>
@@ -2099,7 +2411,7 @@
         <v>-0.16969300000000001</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.4997, gpslng1=-0.169693 WHERE idmember = 86;</v>
       </c>
     </row>
@@ -2114,7 +2426,7 @@
         <v>-0.16744000000000001</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.499914, gpslng1=-0.16744 WHERE idmember = 87;</v>
       </c>
     </row>
@@ -2129,7 +2441,7 @@
         <v>-0.162576</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.502083, gpslng1=-0.162576 WHERE idmember = 88;</v>
       </c>
     </row>
@@ -2144,7 +2456,7 @@
         <v>-0.16714899999999999</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.49995, gpslng1=-0.167149 WHERE idmember = 89;</v>
       </c>
     </row>
@@ -2159,7 +2471,7 @@
         <v>-0.16941600000000001</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.500462, gpslng1=-0.169416 WHERE idmember = 90;</v>
       </c>
     </row>
@@ -2174,7 +2486,7 @@
         <v>-0.30125600000000002</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.510978, gpslng1=-0.301256 WHERE idmember = 92;</v>
       </c>
     </row>
@@ -2189,7 +2501,7 @@
         <v>-0.165467</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.500064, gpslng1=-0.165467 WHERE idmember = 93;</v>
       </c>
     </row>
@@ -2204,7 +2516,7 @@
         <v>-0.16577</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.499579, gpslng1=-0.16577 WHERE idmember = 94;</v>
       </c>
     </row>
@@ -2219,7 +2531,7 @@
         <v>-0.18679999999999999</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.495859, gpslng1=-0.1868 WHERE idmember = 95;</v>
       </c>
     </row>
@@ -2234,7 +2546,7 @@
         <v>-0.167492</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.499997, gpslng1=-0.167492 WHERE idmember = 96;</v>
       </c>
     </row>
@@ -2249,7 +2561,7 @@
         <v>-0.16655400000000001</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.500744, gpslng1=-0.166554 WHERE idmember = 97;</v>
       </c>
     </row>
@@ -2264,7 +2576,7 @@
         <v>0.29000100000000001</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.021777, gpslng1=0.290001 WHERE idmember = 99;</v>
       </c>
     </row>
@@ -2279,7 +2591,7 @@
         <v>-0.16392699999999999</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.499668, gpslng1=-0.163927 WHERE idmember = 100;</v>
       </c>
     </row>
@@ -2294,7 +2606,7 @@
         <v>-0.55236799999999997</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.32082, gpslng1=-0.552368 WHERE idmember = 101;</v>
       </c>
     </row>
@@ -2309,7 +2621,7 @@
         <v>-0.15767200000000001</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.50246, gpslng1=-0.157672 WHERE idmember = 102;</v>
       </c>
     </row>
@@ -2324,7 +2636,7 @@
         <v>-0.16816400000000001</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.498666, gpslng1=-0.168164 WHERE idmember = 103;</v>
       </c>
     </row>
@@ -2339,7 +2651,7 @@
         <v>-0.16675599999999999</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.499413, gpslng1=-0.166756 WHERE idmember = 104;</v>
       </c>
     </row>
@@ -2354,7 +2666,7 @@
         <v>-0.17650399999999999</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.500963, gpslng1=-0.176504 WHERE idmember = 105;</v>
       </c>
     </row>
@@ -2369,7 +2681,7 @@
         <v>-0.170433</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.501564, gpslng1=-0.170433 WHERE idmember = 106;</v>
       </c>
     </row>
@@ -2384,7 +2696,7 @@
         <v>-0.18451600000000001</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.497381, gpslng1=-0.184516 WHERE idmember = 107;</v>
       </c>
     </row>
@@ -2399,7 +2711,7 @@
         <v>-0.16966600000000001</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.499811, gpslng1=-0.169666 WHERE idmember = 108;</v>
       </c>
     </row>
@@ -2414,7 +2726,7 @@
         <v>-0.16732</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.50051, gpslng1=-0.16732 WHERE idmember = 109;</v>
       </c>
     </row>
@@ -2429,7 +2741,7 @@
         <v>-0.16763400000000001</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.499709, gpslng1=-0.167634 WHERE idmember = 110;</v>
       </c>
     </row>
@@ -2444,7 +2756,7 @@
         <v>-0.168293</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.498946, gpslng1=-0.168293 WHERE idmember = 111;</v>
       </c>
     </row>
@@ -2459,7 +2771,7 @@
         <v>-0.17663999999999999</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.500339, gpslng1=-0.17664 WHERE idmember = 112;</v>
       </c>
     </row>
@@ -2474,7 +2786,7 @@
         <v>-0.168017</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.499827, gpslng1=-0.168017 WHERE idmember = 113;</v>
       </c>
     </row>
@@ -2489,7 +2801,7 @@
         <v>-0.16869500000000001</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.499843, gpslng1=-0.168695 WHERE idmember = 114;</v>
       </c>
     </row>
@@ -2504,7 +2816,7 @@
         <v>-0.16747500000000001</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.50158, gpslng1=-0.167475 WHERE idmember = 115;</v>
       </c>
     </row>
@@ -2519,7 +2831,7 @@
         <v>-0.17013400000000001</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.500062, gpslng1=-0.170134 WHERE idmember = 116;</v>
       </c>
     </row>
@@ -2534,7 +2846,7 @@
         <v>-0.167104</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.49973, gpslng1=-0.167104 WHERE idmember = 117;</v>
       </c>
     </row>
@@ -2549,7 +2861,7 @@
         <v>-118.385249</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=34.071059, gpslng1=-118.385249 WHERE idmember = 119;</v>
       </c>
     </row>
@@ -2564,7 +2876,7 @@
         <v>-1.556325</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.22952, gpslng1=-1.556325 WHERE idmember = 120;</v>
       </c>
     </row>
@@ -2579,7 +2891,7 @@
         <v>-0.16764899999999999</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.499429, gpslng1=-0.167649 WHERE idmember = 121;</v>
       </c>
     </row>
@@ -2594,7 +2906,7 @@
         <v>-0.16652900000000001</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.496661, gpslng1=-0.166529 WHERE idmember = 122;</v>
       </c>
     </row>
@@ -2609,7 +2921,7 @@
         <v>-0.16791200000000001</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.498469, gpslng1=-0.167912 WHERE idmember = 123;</v>
       </c>
     </row>
@@ -2624,7 +2936,7 @@
         <v>-0.163769</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.499865, gpslng1=-0.163769 WHERE idmember = 124;</v>
       </c>
     </row>
@@ -2639,7 +2951,7 @@
         <v>-0.16869500000000001</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.499843, gpslng1=-0.168695 WHERE idmember = 125;</v>
       </c>
     </row>
@@ -2654,7 +2966,7 @@
         <v>-1.6254519999999999</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.571337, gpslng1=-1.625452 WHERE idmember = 126;</v>
       </c>
     </row>
@@ -2669,7 +2981,7 @@
         <v>-0.167129</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.499854, gpslng1=-0.167129 WHERE idmember = 127;</v>
       </c>
     </row>
@@ -2684,7 +2996,7 @@
         <v>-0.15794</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.500332, gpslng1=-0.15794 WHERE idmember = 128;</v>
       </c>
     </row>
@@ -2699,7 +3011,7 @@
         <v>-0.16708300000000001</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.499314, gpslng1=-0.167083 WHERE idmember = 129;</v>
       </c>
     </row>
@@ -2714,7 +3026,7 @@
         <v>-0.16986399999999999</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.499093, gpslng1=-0.169864 WHERE idmember = 130;</v>
       </c>
     </row>
@@ -2729,7 +3041,7 @@
         <v>-0.169548</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.499288, gpslng1=-0.169548 WHERE idmember = 131;</v>
       </c>
     </row>
@@ -2744,7 +3056,7 @@
         <v>-0.17402400000000001</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.499705, gpslng1=-0.174024 WHERE idmember = 132;</v>
       </c>
     </row>
@@ -2759,7 +3071,7 @@
         <v>-0.16783699999999999</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.500676, gpslng1=-0.167837 WHERE idmember = 133;</v>
       </c>
     </row>
@@ -2774,7 +3086,7 @@
         <v>-0.16807900000000001</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.498733, gpslng1=-0.168079 WHERE idmember = 134;</v>
       </c>
     </row>
@@ -2789,7 +3101,7 @@
         <v>-0.1739</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.499007, gpslng1=-0.1739 WHERE idmember = 135;</v>
       </c>
     </row>
@@ -2804,7 +3116,7 @@
         <v>-0.17297999999999999</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.501668, gpslng1=-0.17298 WHERE idmember = 136;</v>
       </c>
     </row>
@@ -2819,7 +3131,7 @@
         <v>-0.16029099999999999</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE member SET gpslat1=51.500866, gpslng1=-0.160291 WHERE idmember = 137;</v>
       </c>
     </row>
@@ -2834,7 +3146,7 @@
         <v>-0.167821</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D194" si="2">"UPDATE member SET gpslat1="&amp;B131&amp;", gpslng1="&amp;C131&amp;" WHERE idmember = "&amp;A131&amp;";"</f>
+        <f t="shared" ref="D131:D194" si="3">"UPDATE member SET gpslat1="&amp;B131&amp;", gpslng1="&amp;C131&amp;" WHERE idmember = "&amp;A131&amp;";"</f>
         <v>UPDATE member SET gpslat1=51.49841, gpslng1=-0.167821 WHERE idmember = 138;</v>
       </c>
     </row>
@@ -2849,7 +3161,7 @@
         <v>-0.162576</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.502083, gpslng1=-0.162576 WHERE idmember = 140;</v>
       </c>
     </row>
@@ -2864,7 +3176,7 @@
         <v>-0.15667700000000001</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.501054, gpslng1=-0.156677 WHERE idmember = 141;</v>
       </c>
     </row>
@@ -2879,7 +3191,7 @@
         <v>-0.167911</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.499498, gpslng1=-0.167911 WHERE idmember = 142;</v>
       </c>
     </row>
@@ -2894,7 +3206,7 @@
         <v>-0.17924100000000001</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.498396, gpslng1=-0.179241 WHERE idmember = 143;</v>
       </c>
     </row>
@@ -2909,7 +3221,7 @@
         <v>-0.16816400000000001</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.498666, gpslng1=-0.168164 WHERE idmember = 144;</v>
       </c>
     </row>
@@ -2924,7 +3236,7 @@
         <v>-0.143152</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.497671, gpslng1=-0.143152 WHERE idmember = 145;</v>
       </c>
     </row>
@@ -2939,7 +3251,7 @@
         <v>-0.172238</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.498314, gpslng1=-0.172238 WHERE idmember = 146;</v>
       </c>
     </row>
@@ -2954,7 +3266,7 @@
         <v>-0.15432599999999999</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.496203, gpslng1=-0.154326 WHERE idmember = 147;</v>
       </c>
     </row>
@@ -2969,7 +3281,7 @@
         <v>-0.16569400000000001</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.498078, gpslng1=-0.165694 WHERE idmember = 148;</v>
       </c>
     </row>
@@ -2984,7 +3296,7 @@
         <v>-0.16789000000000001</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.498833, gpslng1=-0.16789 WHERE idmember = 149;</v>
       </c>
     </row>
@@ -2999,7 +3311,7 @@
         <v>-0.16661799999999999</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.49943, gpslng1=-0.166618 WHERE idmember = 150;</v>
       </c>
     </row>
@@ -3014,7 +3326,7 @@
         <v>-0.17343700000000001</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.493631, gpslng1=-0.173437 WHERE idmember = 151;</v>
       </c>
     </row>
@@ -3029,7 +3341,7 @@
         <v>-0.16684399999999999</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.500555, gpslng1=-0.166844 WHERE idmember = 152;</v>
       </c>
     </row>
@@ -3044,7 +3356,7 @@
         <v>-0.161939</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.500506, gpslng1=-0.161939 WHERE idmember = 153;</v>
       </c>
     </row>
@@ -3059,7 +3371,7 @@
         <v>-0.17969299999999999</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.500712, gpslng1=-0.179693 WHERE idmember = 154;</v>
       </c>
     </row>
@@ -3074,7 +3386,7 @@
         <v>-0.16297800000000001</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.515395, gpslng1=-0.162978 WHERE idmember = 155;</v>
       </c>
     </row>
@@ -3089,7 +3401,7 @@
         <v>-0.16186</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.474723, gpslng1=-0.16186 WHERE idmember = 156;</v>
       </c>
     </row>
@@ -3104,7 +3416,7 @@
         <v>-0.17108999999999999</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.499278, gpslng1=-0.17109 WHERE idmember = 158;</v>
       </c>
     </row>
@@ -3119,7 +3431,7 @@
         <v>-0.55430800000000002</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.211597, gpslng1=-0.554308 WHERE idmember = 159;</v>
       </c>
     </row>
@@ -3134,7 +3446,7 @@
         <v>-0.16783200000000001</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.499223, gpslng1=-0.167832 WHERE idmember = 160;</v>
       </c>
     </row>
@@ -3149,7 +3461,7 @@
         <v>-0.16803299999999999</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.500018, gpslng1=-0.168033 WHERE idmember = 161;</v>
       </c>
     </row>
@@ -3164,7 +3476,7 @@
         <v>-0.166687</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.499422, gpslng1=-0.166687 WHERE idmember = 162;</v>
       </c>
     </row>
@@ -3179,7 +3491,7 @@
         <v>-0.16858000000000001</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.500322, gpslng1=-0.16858 WHERE idmember = 163;</v>
       </c>
     </row>
@@ -3194,7 +3506,7 @@
         <v>-0.16587199999999999</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.499054, gpslng1=-0.165872 WHERE idmember = 164;</v>
       </c>
     </row>
@@ -3209,7 +3521,7 @@
         <v>-0.16816400000000001</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.498666, gpslng1=-0.168164 WHERE idmember = 166;</v>
       </c>
     </row>
@@ -3224,7 +3536,7 @@
         <v>-0.16734399999999999</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.497188, gpslng1=-0.167344 WHERE idmember = 167;</v>
       </c>
     </row>
@@ -3239,7 +3551,7 @@
         <v>-0.16609599999999999</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.499206, gpslng1=-0.166096 WHERE idmember = 168;</v>
       </c>
     </row>
@@ -3254,7 +3566,7 @@
         <v>-0.171152</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.499108, gpslng1=-0.171152 WHERE idmember = 169;</v>
       </c>
     </row>
@@ -3269,7 +3581,7 @@
         <v>-0.16771900000000001</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.498949, gpslng1=-0.167719 WHERE idmember = 170;</v>
       </c>
     </row>
@@ -3284,7 +3596,7 @@
         <v>-0.16920399999999999</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.498708, gpslng1=-0.169204 WHERE idmember = 171;</v>
       </c>
     </row>
@@ -3299,7 +3611,7 @@
         <v>-0.159776</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.500733, gpslng1=-0.159776 WHERE idmember = 172;</v>
       </c>
     </row>
@@ -3314,7 +3626,7 @@
         <v>-0.274173</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.532061, gpslng1=-0.274173 WHERE idmember = 174;</v>
       </c>
     </row>
@@ -3329,7 +3641,7 @@
         <v>-0.169492</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.500165, gpslng1=-0.169492 WHERE idmember = 175;</v>
       </c>
     </row>
@@ -3344,7 +3656,7 @@
         <v>-0.16783699999999999</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.500676, gpslng1=-0.167837 WHERE idmember = 176;</v>
       </c>
     </row>
@@ -3359,7 +3671,7 @@
         <v>-0.16962099999999999</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.499406, gpslng1=-0.169621 WHERE idmember = 177;</v>
       </c>
     </row>
@@ -3374,7 +3686,7 @@
         <v>-0.167688</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.498978, gpslng1=-0.167688 WHERE idmember = 178;</v>
       </c>
     </row>
@@ -3389,7 +3701,7 @@
         <v>-0.77479600000000004</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.565774, gpslng1=-0.774796 WHERE idmember = 179;</v>
       </c>
     </row>
@@ -3404,7 +3716,7 @@
         <v>-2.0617510000000001</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=49.188781, gpslng1=-2.061751 WHERE idmember = 180;</v>
       </c>
     </row>
@@ -3419,7 +3731,7 @@
         <v>-0.167239</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.499354, gpslng1=-0.167239 WHERE idmember = 181;</v>
       </c>
     </row>
@@ -3434,7 +3746,7 @@
         <v>-0.16567299999999999</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.499442, gpslng1=-0.165673 WHERE idmember = 182;</v>
       </c>
     </row>
@@ -3449,7 +3761,7 @@
         <v>-0.168823</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.49932, gpslng1=-0.168823 WHERE idmember = 183;</v>
       </c>
     </row>
@@ -3464,7 +3776,7 @@
         <v>-0.16814200000000001</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.50033, gpslng1=-0.168142 WHERE idmember = 184;</v>
       </c>
     </row>
@@ -3479,7 +3791,7 @@
         <v>-0.16583899999999999</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.498991, gpslng1=-0.165839 WHERE idmember = 185;</v>
       </c>
     </row>
@@ -3494,7 +3806,7 @@
         <v>-0.24113899999999999</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.476822, gpslng1=-0.241139 WHERE idmember = 186;</v>
       </c>
     </row>
@@ -3509,7 +3821,7 @@
         <v>-0.159884</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.496977, gpslng1=-0.159884 WHERE idmember = 187;</v>
       </c>
     </row>
@@ -3524,7 +3836,7 @@
         <v>-0.16409799999999999</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.499885, gpslng1=-0.164098 WHERE idmember = 188;</v>
       </c>
     </row>
@@ -3539,7 +3851,7 @@
         <v>-0.17519699999999999</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.512297, gpslng1=-0.175197 WHERE idmember = 189;</v>
       </c>
     </row>
@@ -3554,7 +3866,7 @@
         <v>-2.629327</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=52.193699, gpslng1=-2.629327 WHERE idmember = 190;</v>
       </c>
     </row>
@@ -3569,7 +3881,7 @@
         <v>-0.17929800000000001</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.500305, gpslng1=-0.179298 WHERE idmember = 191;</v>
       </c>
     </row>
@@ -3584,7 +3896,7 @@
         <v>-0.158163</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.50141, gpslng1=-0.158163 WHERE idmember = 193;</v>
       </c>
     </row>
@@ -3599,7 +3911,7 @@
         <v>-0.31154100000000001</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.489465, gpslng1=-0.311541 WHERE idmember = 194;</v>
       </c>
     </row>
@@ -3614,7 +3926,7 @@
         <v>0.28145399999999998</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.953207, gpslng1=0.281454 WHERE idmember = 195;</v>
       </c>
     </row>
@@ -3629,7 +3941,7 @@
         <v>-0.16728699999999999</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.500246, gpslng1=-0.167287 WHERE idmember = 197;</v>
       </c>
     </row>
@@ -3644,7 +3956,7 @@
         <v>-0.16567699999999999</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.49955, gpslng1=-0.165677 WHERE idmember = 198;</v>
       </c>
     </row>
@@ -3659,7 +3971,7 @@
         <v>-0.17849999999999999</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.500641, gpslng1=-0.1785 WHERE idmember = 200;</v>
       </c>
     </row>
@@ -3674,7 +3986,7 @@
         <v>-0.16747500000000001</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.50158, gpslng1=-0.167475 WHERE idmember = 201;</v>
       </c>
     </row>
@@ -3689,7 +4001,7 @@
         <v>-0.16811400000000001</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.498117, gpslng1=-0.168114 WHERE idmember = 202;</v>
       </c>
     </row>
@@ -3704,7 +4016,7 @@
         <v>-0.16711699999999999</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.496226, gpslng1=-0.167117 WHERE idmember = 203;</v>
       </c>
     </row>
@@ -3719,7 +4031,7 @@
         <v>-0.14902199999999999</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.497904, gpslng1=-0.149022 WHERE idmember = 204;</v>
       </c>
     </row>
@@ -3734,7 +4046,7 @@
         <v>-0.168822</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.499238, gpslng1=-0.168822 WHERE idmember = 205;</v>
       </c>
     </row>
@@ -3749,7 +4061,7 @@
         <v>-0.16469300000000001</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.500685, gpslng1=-0.164693 WHERE idmember = 206;</v>
       </c>
     </row>
@@ -3764,7 +4076,7 @@
         <v>-0.168017</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.499827, gpslng1=-0.168017 WHERE idmember = 207;</v>
       </c>
     </row>
@@ -3779,7 +4091,7 @@
         <v>-0.17102400000000001</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UPDATE member SET gpslat1=51.498873, gpslng1=-0.171024 WHERE idmember = 208;</v>
       </c>
     </row>
@@ -3794,7 +4106,7 @@
         <v>-0.17152200000000001</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" ref="D195:D258" si="3">"UPDATE member SET gpslat1="&amp;B195&amp;", gpslng1="&amp;C195&amp;" WHERE idmember = "&amp;A195&amp;";"</f>
+        <f t="shared" ref="D195:D258" si="4">"UPDATE member SET gpslat1="&amp;B195&amp;", gpslng1="&amp;C195&amp;" WHERE idmember = "&amp;A195&amp;";"</f>
         <v>UPDATE member SET gpslat1=51.49912, gpslng1=-0.171522 WHERE idmember = 209;</v>
       </c>
     </row>
@@ -3809,7 +4121,7 @@
         <v>-0.16703899999999999</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.497172, gpslng1=-0.167039 WHERE idmember = 210;</v>
       </c>
     </row>
@@ -3824,7 +4136,7 @@
         <v>-0.16711899999999999</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.4971, gpslng1=-0.167119 WHERE idmember = 211;</v>
       </c>
     </row>
@@ -3839,7 +4151,7 @@
         <v>-0.17092499999999999</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.501299, gpslng1=-0.170925 WHERE idmember = 212;</v>
       </c>
     </row>
@@ -3854,7 +4166,7 @@
         <v>-0.16814200000000001</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.50033, gpslng1=-0.168142 WHERE idmember = 213;</v>
       </c>
     </row>
@@ -3869,7 +4181,7 @@
         <v>-0.17230200000000001</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.494873, gpslng1=-0.172302 WHERE idmember = 214;</v>
       </c>
     </row>
@@ -3884,7 +4196,7 @@
         <v>-0.16125700000000001</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.516106, gpslng1=-0.161257 WHERE idmember = 216;</v>
       </c>
     </row>
@@ -3899,7 +4211,7 @@
         <v>-0.16143099999999999</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.499643, gpslng1=-0.161431 WHERE idmember = 217;</v>
       </c>
     </row>
@@ -3914,7 +4226,7 @@
         <v>-0.16778699999999999</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.498785, gpslng1=-0.167787 WHERE idmember = 218;</v>
       </c>
     </row>
@@ -3929,7 +4241,7 @@
         <v>-0.17075099999999999</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.498986, gpslng1=-0.170751 WHERE idmember = 219;</v>
       </c>
     </row>
@@ -3944,7 +4256,7 @@
         <v>-0.166242</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.498506, gpslng1=-0.166242 WHERE idmember = 220;</v>
       </c>
     </row>
@@ -3959,7 +4271,7 @@
         <v>-0.168464</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.501244, gpslng1=-0.168464 WHERE idmember = 221;</v>
       </c>
     </row>
@@ -3974,7 +4286,7 @@
         <v>-0.168457</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.501149, gpslng1=-0.168457 WHERE idmember = 222;</v>
       </c>
     </row>
@@ -3989,7 +4301,7 @@
         <v>-0.168125</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.498815, gpslng1=-0.168125 WHERE idmember = 223;</v>
       </c>
     </row>
@@ -4004,7 +4316,7 @@
         <v>-0.16186500000000001</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.495567, gpslng1=-0.161865 WHERE idmember = 224;</v>
       </c>
     </row>
@@ -4019,7 +4331,7 @@
         <v>-0.16053799999999999</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.499376, gpslng1=-0.160538 WHERE idmember = 225;</v>
       </c>
     </row>
@@ -4034,7 +4346,7 @@
         <v>-0.16565099999999999</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.497737, gpslng1=-0.165651 WHERE idmember = 226;</v>
       </c>
     </row>
@@ -4049,7 +4361,7 @@
         <v>-0.17326900000000001</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.357182, gpslng1=-0.173269 WHERE idmember = 227;</v>
       </c>
     </row>
@@ -4064,7 +4376,7 @@
         <v>-0.164156</v>
       </c>
       <c r="D213" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.497847, gpslng1=-0.164156 WHERE idmember = 228;</v>
       </c>
     </row>
@@ -4079,7 +4391,7 @@
         <v>-0.15667900000000001</v>
       </c>
       <c r="D214" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.501969, gpslng1=-0.156679 WHERE idmember = 229;</v>
       </c>
     </row>
@@ -4094,7 +4406,7 @@
         <v>-0.24465200000000001</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.504304, gpslng1=-0.244652 WHERE idmember = 230;</v>
       </c>
     </row>
@@ -4109,7 +4421,7 @@
         <v>-0.167356</v>
       </c>
       <c r="D216" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.499552, gpslng1=-0.167356 WHERE idmember = 231;</v>
       </c>
     </row>
@@ -4124,7 +4436,7 @@
         <v>-0.16986399999999999</v>
       </c>
       <c r="D217" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.499093, gpslng1=-0.169864 WHERE idmember = 232;</v>
       </c>
     </row>
@@ -4139,7 +4451,7 @@
         <v>-0.16178500000000001</v>
       </c>
       <c r="D218" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.498513, gpslng1=-0.161785 WHERE idmember = 233;</v>
       </c>
     </row>
@@ -4154,7 +4466,7 @@
         <v>-0.16553699999999999</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.50031, gpslng1=-0.165537 WHERE idmember = 234;</v>
       </c>
     </row>
@@ -4169,7 +4481,7 @@
         <v>-0.15815299999999999</v>
       </c>
       <c r="D220" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.50118, gpslng1=-0.158153 WHERE idmember = 236;</v>
       </c>
     </row>
@@ -4184,7 +4496,7 @@
         <v>-0.168098</v>
       </c>
       <c r="D221" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.496828, gpslng1=-0.168098 WHERE idmember = 237;</v>
       </c>
     </row>
@@ -4199,7 +4511,7 @@
         <v>-0.16962099999999999</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.499406, gpslng1=-0.169621 WHERE idmember = 238;</v>
       </c>
     </row>
@@ -4214,7 +4526,7 @@
         <v>-0.16572799999999999</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.499483, gpslng1=-0.165728 WHERE idmember = 239;</v>
       </c>
     </row>
@@ -4229,7 +4541,7 @@
         <v>-0.16105900000000001</v>
       </c>
       <c r="D224" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.500074, gpslng1=-0.161059 WHERE idmember = 240;</v>
       </c>
     </row>
@@ -4244,7 +4556,7 @@
         <v>-0.172402</v>
       </c>
       <c r="D225" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.495138, gpslng1=-0.172402 WHERE idmember = 241;</v>
       </c>
     </row>
@@ -4259,7 +4571,7 @@
         <v>-0.27787200000000001</v>
       </c>
       <c r="D226" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.49376, gpslng1=-0.277872 WHERE idmember = 242;</v>
       </c>
     </row>
@@ -4274,7 +4586,7 @@
         <v>-0.15767200000000001</v>
       </c>
       <c r="D227" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.50246, gpslng1=-0.157672 WHERE idmember = 244;</v>
       </c>
     </row>
@@ -4289,7 +4601,7 @@
         <v>-0.16933999999999999</v>
       </c>
       <c r="D228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.501541, gpslng1=-0.16934 WHERE idmember = 245;</v>
       </c>
     </row>
@@ -4304,7 +4616,7 @@
         <v>-0.167215</v>
       </c>
       <c r="D229" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.498751, gpslng1=-0.167215 WHERE idmember = 246;</v>
       </c>
     </row>
@@ -4319,7 +4631,7 @@
         <v>-0.18888199999999999</v>
       </c>
       <c r="D230" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.500388, gpslng1=-0.188882 WHERE idmember = 247;</v>
       </c>
     </row>
@@ -4334,7 +4646,7 @@
         <v>-2.237212</v>
       </c>
       <c r="D231" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=53.478585, gpslng1=-2.237212 WHERE idmember = 248;</v>
       </c>
     </row>
@@ -4349,7 +4661,7 @@
         <v>-63.050080999999999</v>
       </c>
       <c r="D232" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=18.07083, gpslng1=-63.050081 WHERE idmember = 249;</v>
       </c>
     </row>
@@ -4364,7 +4676,7 @@
         <v>-0.163436</v>
       </c>
       <c r="D233" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.501568, gpslng1=-0.163436 WHERE idmember = 250;</v>
       </c>
     </row>
@@ -4379,7 +4691,7 @@
         <v>-0.17194100000000001</v>
       </c>
       <c r="D234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.501625, gpslng1=-0.171941 WHERE idmember = 251;</v>
       </c>
     </row>
@@ -4394,7 +4706,7 @@
         <v>-3.4883000000000002</v>
       </c>
       <c r="D235" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.206952, gpslng1=-3.4883 WHERE idmember = 252;</v>
       </c>
     </row>
@@ -4409,7 +4721,7 @@
         <v>-0.89175599999999999</v>
       </c>
       <c r="D236" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.272817, gpslng1=-0.891756 WHERE idmember = 253;</v>
       </c>
     </row>
@@ -4424,7 +4736,7 @@
         <v>-0.16783799999999999</v>
       </c>
       <c r="D237" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.498248, gpslng1=-0.167838 WHERE idmember = 254;</v>
       </c>
     </row>
@@ -4439,7 +4751,7 @@
         <v>-0.165466</v>
       </c>
       <c r="D238" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.500023, gpslng1=-0.165466 WHERE idmember = 255;</v>
       </c>
     </row>
@@ -4454,7 +4766,7 @@
         <v>-0.169845</v>
       </c>
       <c r="D239" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.501499, gpslng1=-0.169845 WHERE idmember = 256;</v>
       </c>
     </row>
@@ -4469,7 +4781,7 @@
         <v>-0.168017</v>
       </c>
       <c r="D240" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.499827, gpslng1=-0.168017 WHERE idmember = 257;</v>
       </c>
     </row>
@@ -4484,7 +4796,7 @@
         <v>-0.170517</v>
       </c>
       <c r="D241" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.49495, gpslng1=-0.170517 WHERE idmember = 258;</v>
       </c>
     </row>
@@ -4499,7 +4811,7 @@
         <v>-0.16126199999999999</v>
       </c>
       <c r="D242" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.499356, gpslng1=-0.161262 WHERE idmember = 259;</v>
       </c>
     </row>
@@ -4514,7 +4826,7 @@
         <v>-0.15803</v>
       </c>
       <c r="D243" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.501423, gpslng1=-0.15803 WHERE idmember = 260;</v>
       </c>
     </row>
@@ -4529,7 +4841,7 @@
         <v>-0.17241400000000001</v>
       </c>
       <c r="D244" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.498233, gpslng1=-0.172414 WHERE idmember = 261;</v>
       </c>
     </row>
@@ -4544,7 +4856,7 @@
         <v>-0.167292</v>
       </c>
       <c r="D245" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.499214, gpslng1=-0.167292 WHERE idmember = 262;</v>
       </c>
     </row>
@@ -4559,7 +4871,7 @@
         <v>-0.16154199999999999</v>
       </c>
       <c r="D246" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.524475, gpslng1=-0.161542 WHERE idmember = 264;</v>
       </c>
     </row>
@@ -4574,7 +4886,7 @@
         <v>-0.16583000000000001</v>
       </c>
       <c r="D247" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.499864, gpslng1=-0.16583 WHERE idmember = 265;</v>
       </c>
     </row>
@@ -4589,7 +4901,7 @@
         <v>-0.19641600000000001</v>
       </c>
       <c r="D248" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.50464, gpslng1=-0.196416 WHERE idmember = 266;</v>
       </c>
     </row>
@@ -4604,7 +4916,7 @@
         <v>-1.3876310000000001</v>
       </c>
       <c r="D249" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.405117, gpslng1=-1.387631 WHERE idmember = 267;</v>
       </c>
     </row>
@@ -4619,7 +4931,7 @@
         <v>-0.168461</v>
       </c>
       <c r="D250" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.501318, gpslng1=-0.168461 WHERE idmember = 268;</v>
       </c>
     </row>
@@ -4634,7 +4946,7 @@
         <v>-0.158998</v>
       </c>
       <c r="D251" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.500604, gpslng1=-0.158998 WHERE idmember = 269;</v>
       </c>
     </row>
@@ -4649,7 +4961,7 @@
         <v>-0.161636</v>
       </c>
       <c r="D252" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.499366, gpslng1=-0.161636 WHERE idmember = 270;</v>
       </c>
     </row>
@@ -4664,7 +4976,7 @@
         <v>-0.162576</v>
       </c>
       <c r="D253" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.502083, gpslng1=-0.162576 WHERE idmember = 271;</v>
       </c>
     </row>
@@ -4679,7 +4991,7 @@
         <v>-0.16866300000000001</v>
       </c>
       <c r="D254" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.500232, gpslng1=-0.168663 WHERE idmember = 273;</v>
       </c>
     </row>
@@ -4694,7 +5006,7 @@
         <v>-0.163962</v>
       </c>
       <c r="D255" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.501343, gpslng1=-0.163962 WHERE idmember = 274;</v>
       </c>
     </row>
@@ -4709,7 +5021,7 @@
         <v>-0.17353199999999999</v>
       </c>
       <c r="D256" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.494006, gpslng1=-0.173532 WHERE idmember = 275;</v>
       </c>
     </row>
@@ -4724,7 +5036,7 @@
         <v>-0.170233</v>
       </c>
       <c r="D257" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.499036, gpslng1=-0.170233 WHERE idmember = 276;</v>
       </c>
     </row>
@@ -4739,7 +5051,7 @@
         <v>-0.16785</v>
       </c>
       <c r="D258" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UPDATE member SET gpslat1=51.498844, gpslng1=-0.16785 WHERE idmember = 277;</v>
       </c>
     </row>
@@ -4754,7 +5066,7 @@
         <v>-0.16914999999999999</v>
       </c>
       <c r="D259" t="str">
-        <f t="shared" ref="D259:D322" si="4">"UPDATE member SET gpslat1="&amp;B259&amp;", gpslng1="&amp;C259&amp;" WHERE idmember = "&amp;A259&amp;";"</f>
+        <f t="shared" ref="D259:D322" si="5">"UPDATE member SET gpslat1="&amp;B259&amp;", gpslng1="&amp;C259&amp;" WHERE idmember = "&amp;A259&amp;";"</f>
         <v>UPDATE member SET gpslat1=51.500638, gpslng1=-0.16915 WHERE idmember = 278;</v>
       </c>
     </row>
@@ -4769,7 +5081,7 @@
         <v>-0.17150599999999999</v>
       </c>
       <c r="D260" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.499582, gpslng1=-0.171506 WHERE idmember = 279;</v>
       </c>
     </row>
@@ -4784,7 +5096,7 @@
         <v>-0.163962</v>
       </c>
       <c r="D261" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.501343, gpslng1=-0.163962 WHERE idmember = 280;</v>
       </c>
     </row>
@@ -4799,7 +5111,7 @@
         <v>-0.170095</v>
       </c>
       <c r="D262" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.500081, gpslng1=-0.170095 WHERE idmember = 281;</v>
       </c>
     </row>
@@ -4814,7 +5126,7 @@
         <v>-0.16783699999999999</v>
       </c>
       <c r="D263" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.500676, gpslng1=-0.167837 WHERE idmember = 283;</v>
       </c>
     </row>
@@ -4829,7 +5141,7 @@
         <v>-0.164905</v>
       </c>
       <c r="D264" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.501031, gpslng1=-0.164905 WHERE idmember = 284;</v>
       </c>
     </row>
@@ -4844,7 +5156,7 @@
         <v>-0.169714</v>
       </c>
       <c r="D265" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.50169, gpslng1=-0.169714 WHERE idmember = 285;</v>
       </c>
     </row>
@@ -4859,7 +5171,7 @@
         <v>-0.15595300000000001</v>
       </c>
       <c r="D266" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.501467, gpslng1=-0.155953 WHERE idmember = 286;</v>
       </c>
     </row>
@@ -4874,7 +5186,7 @@
         <v>-0.15721099999999999</v>
       </c>
       <c r="D267" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.490222, gpslng1=-0.157211 WHERE idmember = 288;</v>
       </c>
     </row>
@@ -4889,7 +5201,7 @@
         <v>-0.15767200000000001</v>
       </c>
       <c r="D268" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.50246, gpslng1=-0.157672 WHERE idmember = 289;</v>
       </c>
     </row>
@@ -4904,7 +5216,7 @@
         <v>-0.16132199999999999</v>
       </c>
       <c r="D269" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.496574, gpslng1=-0.161322 WHERE idmember = 290;</v>
       </c>
     </row>
@@ -4919,7 +5231,7 @@
         <v>-0.178672</v>
       </c>
       <c r="D270" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.4915, gpslng1=-0.178672 WHERE idmember = 291;</v>
       </c>
     </row>
@@ -4934,7 +5246,7 @@
         <v>-0.156746</v>
       </c>
       <c r="D271" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.502159, gpslng1=-0.156746 WHERE idmember = 292;</v>
       </c>
     </row>
@@ -4949,7 +5261,7 @@
         <v>-0.17663999999999999</v>
       </c>
       <c r="D272" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.500339, gpslng1=-0.17664 WHERE idmember = 293;</v>
       </c>
     </row>
@@ -4964,7 +5276,7 @@
         <v>-0.17420099999999999</v>
       </c>
       <c r="D273" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.493422, gpslng1=-0.174201 WHERE idmember = 294;</v>
       </c>
     </row>
@@ -4979,7 +5291,7 @@
         <v>-0.165881</v>
       </c>
       <c r="D274" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.500042, gpslng1=-0.165881 WHERE idmember = 295;</v>
       </c>
     </row>
@@ -4994,7 +5306,7 @@
         <v>-0.16745299999999999</v>
       </c>
       <c r="D275" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.499685, gpslng1=-0.167453 WHERE idmember = 296;</v>
       </c>
     </row>
@@ -5009,7 +5321,7 @@
         <v>-0.16362199999999999</v>
       </c>
       <c r="D276" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.496856, gpslng1=-0.163622 WHERE idmember = 297;</v>
       </c>
     </row>
@@ -5024,7 +5336,7 @@
         <v>-0.16236500000000001</v>
       </c>
       <c r="D277" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.497364, gpslng1=-0.162365 WHERE idmember = 298;</v>
       </c>
     </row>
@@ -5039,7 +5351,7 @@
         <v>-0.16734199999999999</v>
       </c>
       <c r="D278" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.499489, gpslng1=-0.167342 WHERE idmember = 299;</v>
       </c>
     </row>
@@ -5054,7 +5366,7 @@
         <v>-0.22350700000000001</v>
       </c>
       <c r="D279" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.482454, gpslng1=-0.223507 WHERE idmember = 300;</v>
       </c>
     </row>
@@ -5069,7 +5381,7 @@
         <v>-1.993174</v>
       </c>
       <c r="D280" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.791621, gpslng1=-1.993174 WHERE idmember = 301;</v>
       </c>
     </row>
@@ -5084,7 +5396,7 @@
         <v>-0.166465</v>
       </c>
       <c r="D281" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.499932, gpslng1=-0.166465 WHERE idmember = 302;</v>
       </c>
     </row>
@@ -5099,7 +5411,7 @@
         <v>-0.16740099999999999</v>
       </c>
       <c r="D282" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.500502, gpslng1=-0.167401 WHERE idmember = 303;</v>
       </c>
     </row>
@@ -5114,7 +5426,7 @@
         <v>-0.17069000000000001</v>
       </c>
       <c r="D283" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.500287, gpslng1=-0.17069 WHERE idmember = 304;</v>
       </c>
     </row>
@@ -5129,7 +5441,7 @@
         <v>-0.16489200000000001</v>
       </c>
       <c r="D284" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.500872, gpslng1=-0.164892 WHERE idmember = 305;</v>
       </c>
     </row>
@@ -5144,7 +5456,7 @@
         <v>-0.16479099999999999</v>
       </c>
       <c r="D285" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.498434, gpslng1=-0.164791 WHERE idmember = 306;</v>
       </c>
     </row>
@@ -5159,7 +5471,7 @@
         <v>-0.16741800000000001</v>
       </c>
       <c r="D286" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.499789, gpslng1=-0.167418 WHERE idmember = 307;</v>
       </c>
     </row>
@@ -5174,7 +5486,7 @@
         <v>-0.16783699999999999</v>
       </c>
       <c r="D287" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.500676, gpslng1=-0.167837 WHERE idmember = 308;</v>
       </c>
     </row>
@@ -5189,7 +5501,7 @@
         <v>-0.16869500000000001</v>
       </c>
       <c r="D288" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.499843, gpslng1=-0.168695 WHERE idmember = 309;</v>
       </c>
     </row>
@@ -5204,7 +5516,7 @@
         <v>-0.16588900000000001</v>
       </c>
       <c r="D289" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.500563, gpslng1=-0.165889 WHERE idmember = 310;</v>
       </c>
     </row>
@@ -5219,7 +5531,7 @@
         <v>6.6607700000000003</v>
       </c>
       <c r="D290" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.28535, gpslng1=6.66077 WHERE idmember = 311;</v>
       </c>
     </row>
@@ -5234,7 +5546,7 @@
         <v>-0.163962</v>
       </c>
       <c r="D291" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.501343, gpslng1=-0.163962 WHERE idmember = 312;</v>
       </c>
     </row>
@@ -5249,7 +5561,7 @@
         <v>-0.16841700000000001</v>
       </c>
       <c r="D292" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.499061, gpslng1=-0.168417 WHERE idmember = 313;</v>
       </c>
     </row>
@@ -5264,7 +5576,7 @@
         <v>-0.16286600000000001</v>
       </c>
       <c r="D293" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.498891, gpslng1=-0.162866 WHERE idmember = 314;</v>
       </c>
     </row>
@@ -5279,7 +5591,7 @@
         <v>-0.167821</v>
       </c>
       <c r="D294" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.49841, gpslng1=-0.167821 WHERE idmember = 315;</v>
       </c>
     </row>
@@ -5294,7 +5606,7 @@
         <v>-0.165269</v>
       </c>
       <c r="D295" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.499659, gpslng1=-0.165269 WHERE idmember = 316;</v>
       </c>
     </row>
@@ -5309,7 +5621,7 @@
         <v>-0.17102400000000001</v>
       </c>
       <c r="D296" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.498873, gpslng1=-0.171024 WHERE idmember = 318;</v>
       </c>
     </row>
@@ -5324,7 +5636,7 @@
         <v>-0.166383</v>
       </c>
       <c r="D297" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.498786, gpslng1=-0.166383 WHERE idmember = 319;</v>
       </c>
     </row>
@@ -5339,7 +5651,7 @@
         <v>-0.16131899999999999</v>
       </c>
       <c r="D298" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.498356, gpslng1=-0.161319 WHERE idmember = 320;</v>
       </c>
     </row>
@@ -5354,7 +5666,7 @@
         <v>-0.16493099999999999</v>
       </c>
       <c r="D299" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.501241, gpslng1=-0.164931 WHERE idmember = 322;</v>
       </c>
     </row>
@@ -5369,7 +5681,7 @@
         <v>-0.101635</v>
       </c>
       <c r="D300" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.455507, gpslng1=-0.101635 WHERE idmember = 323;</v>
       </c>
     </row>
@@ -5384,7 +5696,7 @@
         <v>-0.16614200000000001</v>
       </c>
       <c r="D301" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.499768, gpslng1=-0.166142 WHERE idmember = 324;</v>
       </c>
     </row>
@@ -5399,7 +5711,7 @@
         <v>-0.16783699999999999</v>
       </c>
       <c r="D302" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.500676, gpslng1=-0.167837 WHERE idmember = 325;</v>
       </c>
     </row>
@@ -5414,7 +5726,7 @@
         <v>-0.17924100000000001</v>
       </c>
       <c r="D303" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.498396, gpslng1=-0.179241 WHERE idmember = 328;</v>
       </c>
     </row>
@@ -5429,7 +5741,7 @@
         <v>-0.166912</v>
       </c>
       <c r="D304" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.499455, gpslng1=-0.166912 WHERE idmember = 329;</v>
       </c>
     </row>
@@ -5444,7 +5756,7 @@
         <v>-0.16089800000000001</v>
       </c>
       <c r="D305" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.500276, gpslng1=-0.160898 WHERE idmember = 330;</v>
       </c>
     </row>
@@ -5459,7 +5771,7 @@
         <v>-0.163683</v>
       </c>
       <c r="D306" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.497488, gpslng1=-0.163683 WHERE idmember = 332;</v>
       </c>
     </row>
@@ -5474,7 +5786,7 @@
         <v>-0.161466</v>
       </c>
       <c r="D307" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.495835, gpslng1=-0.161466 WHERE idmember = 333;</v>
       </c>
     </row>
@@ -5489,7 +5801,7 @@
         <v>-0.166102</v>
       </c>
       <c r="D308" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.498517, gpslng1=-0.166102 WHERE idmember = 334;</v>
       </c>
     </row>
@@ -5504,7 +5816,7 @@
         <v>-0.163996</v>
       </c>
       <c r="D309" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.500433, gpslng1=-0.163996 WHERE idmember = 335;</v>
       </c>
     </row>
@@ -5519,7 +5831,7 @@
         <v>-0.16747500000000001</v>
       </c>
       <c r="D310" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.50158, gpslng1=-0.167475 WHERE idmember = 336;</v>
       </c>
     </row>
@@ -5534,7 +5846,7 @@
         <v>-0.16518099999999999</v>
       </c>
       <c r="D311" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.496373, gpslng1=-0.165181 WHERE idmember = 337;</v>
       </c>
     </row>
@@ -5549,7 +5861,7 @@
         <v>-0.166965</v>
       </c>
       <c r="D312" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.500797, gpslng1=-0.166965 WHERE idmember = 338;</v>
       </c>
     </row>
@@ -5564,7 +5876,7 @@
         <v>-0.171462</v>
       </c>
       <c r="D313" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.499951, gpslng1=-0.171462 WHERE idmember = 339;</v>
       </c>
     </row>
@@ -5579,7 +5891,7 @@
         <v>-0.16525899999999999</v>
       </c>
       <c r="D314" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.500674, gpslng1=-0.165259 WHERE idmember = 340;</v>
       </c>
     </row>
@@ -5594,7 +5906,7 @@
         <v>-8.4666000000000005E-2</v>
       </c>
       <c r="D315" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.510508, gpslng1=-0.084666 WHERE idmember = 341;</v>
       </c>
     </row>
@@ -5609,7 +5921,7 @@
         <v>-1.902908</v>
       </c>
       <c r="D316" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=52.005765, gpslng1=-1.902908 WHERE idmember = 342;</v>
       </c>
     </row>
@@ -5624,7 +5936,7 @@
         <v>-0.18054999999999999</v>
       </c>
       <c r="D317" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.500785, gpslng1=-0.18055 WHERE idmember = 343;</v>
       </c>
     </row>
@@ -5639,7 +5951,7 @@
         <v>-0.16758000000000001</v>
       </c>
       <c r="D318" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.498805, gpslng1=-0.16758 WHERE idmember = 344;</v>
       </c>
     </row>
@@ -5654,7 +5966,7 @@
         <v>-0.16932900000000001</v>
       </c>
       <c r="D319" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.500134, gpslng1=-0.169329 WHERE idmember = 345;</v>
       </c>
     </row>
@@ -5669,7 +5981,7 @@
         <v>-0.164936</v>
       </c>
       <c r="D320" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.500764, gpslng1=-0.164936 WHERE idmember = 346;</v>
       </c>
     </row>
@@ -5684,7 +5996,7 @@
         <v>-1.6795679999999999</v>
       </c>
       <c r="D321" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.04949, gpslng1=-1.679568 WHERE idmember = 347;</v>
       </c>
     </row>
@@ -5699,7 +6011,7 @@
         <v>-0.16519200000000001</v>
       </c>
       <c r="D322" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>UPDATE member SET gpslat1=51.500441, gpslng1=-0.165192 WHERE idmember = 348;</v>
       </c>
     </row>
@@ -5714,7 +6026,7 @@
         <v>114.18844199999999</v>
       </c>
       <c r="D323" t="str">
-        <f t="shared" ref="D323:D386" si="5">"UPDATE member SET gpslat1="&amp;B323&amp;", gpslng1="&amp;C323&amp;" WHERE idmember = "&amp;A323&amp;";"</f>
+        <f t="shared" ref="D323:D386" si="6">"UPDATE member SET gpslat1="&amp;B323&amp;", gpslng1="&amp;C323&amp;" WHERE idmember = "&amp;A323&amp;";"</f>
         <v>UPDATE member SET gpslat1=22.263716, gpslng1=114.188442 WHERE idmember = 349;</v>
       </c>
     </row>
@@ -5729,7 +6041,7 @@
         <v>-0.160439</v>
       </c>
       <c r="D324" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.501568, gpslng1=-0.160439 WHERE idmember = 350;</v>
       </c>
     </row>
@@ -5744,7 +6056,7 @@
         <v>-0.16869799999999999</v>
       </c>
       <c r="D325" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.488716, gpslng1=-0.168698 WHERE idmember = 351;</v>
       </c>
     </row>
@@ -5759,7 +6071,7 @@
         <v>-0.173933</v>
       </c>
       <c r="D326" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.498917, gpslng1=-0.173933 WHERE idmember = 352;</v>
       </c>
     </row>
@@ -5774,7 +6086,7 @@
         <v>-0.168652</v>
       </c>
       <c r="D327" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.500006, gpslng1=-0.168652 WHERE idmember = 353;</v>
       </c>
     </row>
@@ -5789,7 +6101,7 @@
         <v>-0.15748999999999999</v>
       </c>
       <c r="D328" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.501576, gpslng1=-0.15749 WHERE idmember = 354;</v>
       </c>
     </row>
@@ -5804,7 +6116,7 @@
         <v>-0.16783699999999999</v>
       </c>
       <c r="D329" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.500676, gpslng1=-0.167837 WHERE idmember = 355;</v>
       </c>
     </row>
@@ -5819,7 +6131,7 @@
         <v>-0.17913899999999999</v>
       </c>
       <c r="D330" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.497537, gpslng1=-0.179139 WHERE idmember = 356;</v>
       </c>
     </row>
@@ -5834,7 +6146,7 @@
         <v>-0.18015999999999999</v>
       </c>
       <c r="D331" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.496775, gpslng1=-0.18016 WHERE idmember = 357;</v>
       </c>
     </row>
@@ -5849,7 +6161,7 @@
         <v>-0.167632</v>
       </c>
       <c r="D332" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.501575, gpslng1=-0.167632 WHERE idmember = 358;</v>
       </c>
     </row>
@@ -5864,7 +6176,7 @@
         <v>-0.170853</v>
       </c>
       <c r="D333" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.500056, gpslng1=-0.170853 WHERE idmember = 359;</v>
       </c>
     </row>
@@ -5879,7 +6191,7 @@
         <v>-0.16833000000000001</v>
       </c>
       <c r="D334" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.498991, gpslng1=-0.16833 WHERE idmember = 360;</v>
       </c>
     </row>
@@ -5894,7 +6206,7 @@
         <v>-0.16105900000000001</v>
       </c>
       <c r="D335" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.500074, gpslng1=-0.161059 WHERE idmember = 361;</v>
       </c>
     </row>
@@ -5909,7 +6221,7 @@
         <v>-0.17452400000000001</v>
       </c>
       <c r="D336" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.49781, gpslng1=-0.174524 WHERE idmember = 362;</v>
       </c>
     </row>
@@ -5924,7 +6236,7 @@
         <v>-0.17269799999999999</v>
       </c>
       <c r="D337" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.498272, gpslng1=-0.172698 WHERE idmember = 363;</v>
       </c>
     </row>
@@ -5939,7 +6251,7 @@
         <v>-0.166383</v>
       </c>
       <c r="D338" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.498786, gpslng1=-0.166383 WHERE idmember = 364;</v>
       </c>
     </row>
@@ -5954,7 +6266,7 @@
         <v>-0.166767</v>
       </c>
       <c r="D339" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.500563, gpslng1=-0.166767 WHERE idmember = 366;</v>
       </c>
     </row>
@@ -5969,7 +6281,7 @@
         <v>-0.16914999999999999</v>
       </c>
       <c r="D340" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.500638, gpslng1=-0.16915 WHERE idmember = 367;</v>
       </c>
     </row>
@@ -5984,7 +6296,7 @@
         <v>-0.16986399999999999</v>
       </c>
       <c r="D341" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.499093, gpslng1=-0.169864 WHERE idmember = 369;</v>
       </c>
     </row>
@@ -5999,7 +6311,7 @@
         <v>-0.16952500000000001</v>
       </c>
       <c r="D342" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.499234, gpslng1=-0.169525 WHERE idmember = 370;</v>
       </c>
     </row>
@@ -6014,7 +6326,7 @@
         <v>-0.16794300000000001</v>
       </c>
       <c r="D343" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.49961, gpslng1=-0.167943 WHERE idmember = 371;</v>
       </c>
     </row>
@@ -6029,7 +6341,7 @@
         <v>-0.16747899999999999</v>
       </c>
       <c r="D344" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.500495, gpslng1=-0.167479 WHERE idmember = 372;</v>
       </c>
     </row>
@@ -6044,7 +6356,7 @@
         <v>-0.166383</v>
       </c>
       <c r="D345" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.498786, gpslng1=-0.166383 WHERE idmember = 374;</v>
       </c>
     </row>
@@ -6059,7 +6371,7 @@
         <v>-0.16568099999999999</v>
       </c>
       <c r="D346" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.489066, gpslng1=-0.165681 WHERE idmember = 375;</v>
       </c>
     </row>
@@ -6074,7 +6386,7 @@
         <v>-0.15767200000000001</v>
       </c>
       <c r="D347" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.50246, gpslng1=-0.157672 WHERE idmember = 376;</v>
       </c>
     </row>
@@ -6089,7 +6401,7 @@
         <v>-0.16433400000000001</v>
       </c>
       <c r="D348" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.498202, gpslng1=-0.164334 WHERE idmember = 377;</v>
       </c>
     </row>
@@ -6104,7 +6416,7 @@
         <v>-2.3670740000000001</v>
       </c>
       <c r="D349" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.386624, gpslng1=-2.367074 WHERE idmember = 378;</v>
       </c>
     </row>
@@ -6119,7 +6431,7 @@
         <v>-0.17933099999999999</v>
       </c>
       <c r="D350" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.500561, gpslng1=-0.179331 WHERE idmember = 379;</v>
       </c>
     </row>
@@ -6134,7 +6446,7 @@
         <v>-0.21161099999999999</v>
       </c>
       <c r="D351" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.459042, gpslng1=-0.211611 WHERE idmember = 380;</v>
       </c>
     </row>
@@ -6149,7 +6461,7 @@
         <v>-0.17109099999999999</v>
       </c>
       <c r="D352" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.498946, gpslng1=-0.171091 WHERE idmember = 381;</v>
       </c>
     </row>
@@ -6164,7 +6476,7 @@
         <v>-0.165661</v>
       </c>
       <c r="D353" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.499463, gpslng1=-0.165661 WHERE idmember = 382;</v>
       </c>
     </row>
@@ -6179,7 +6491,7 @@
         <v>-0.166995</v>
       </c>
       <c r="D354" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.500541, gpslng1=-0.166995 WHERE idmember = 383;</v>
       </c>
     </row>
@@ -6194,7 +6506,7 @@
         <v>-0.166383</v>
       </c>
       <c r="D355" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.498786, gpslng1=-0.166383 WHERE idmember = 384;</v>
       </c>
     </row>
@@ -6209,7 +6521,7 @@
         <v>-0.167911</v>
       </c>
       <c r="D356" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.499498, gpslng1=-0.167911 WHERE idmember = 386;</v>
       </c>
     </row>
@@ -6224,7 +6536,7 @@
         <v>-0.16986399999999999</v>
       </c>
       <c r="D357" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.499093, gpslng1=-0.169864 WHERE idmember = 387;</v>
       </c>
     </row>
@@ -6239,7 +6551,7 @@
         <v>-0.163769</v>
       </c>
       <c r="D358" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.499865, gpslng1=-0.163769 WHERE idmember = 388;</v>
       </c>
     </row>
@@ -6254,7 +6566,7 @@
         <v>-0.128744</v>
       </c>
       <c r="D359" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.497094, gpslng1=-0.128744 WHERE idmember = 390;</v>
       </c>
     </row>
@@ -6269,7 +6581,7 @@
         <v>-0.18395900000000001</v>
       </c>
       <c r="D360" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.496717, gpslng1=-0.183959 WHERE idmember = 391;</v>
       </c>
     </row>
@@ -6284,7 +6596,7 @@
         <v>-0.128556</v>
       </c>
       <c r="D361" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.512603, gpslng1=-0.128556 WHERE idmember = 392;</v>
       </c>
     </row>
@@ -6299,7 +6611,7 @@
         <v>-0.18576000000000001</v>
       </c>
       <c r="D362" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.498334, gpslng1=-0.18576 WHERE idmember = 393;</v>
       </c>
     </row>
@@ -6314,7 +6626,7 @@
         <v>-0.16628799999999999</v>
       </c>
       <c r="D363" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.500608, gpslng1=-0.166288 WHERE idmember = 394;</v>
       </c>
     </row>
@@ -6329,7 +6641,7 @@
         <v>-0.16588900000000001</v>
       </c>
       <c r="D364" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.500563, gpslng1=-0.165889 WHERE idmember = 395;</v>
       </c>
     </row>
@@ -6344,7 +6656,7 @@
         <v>-0.16722500000000001</v>
       </c>
       <c r="D365" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.500046, gpslng1=-0.167225 WHERE idmember = 396;</v>
       </c>
     </row>
@@ -6359,7 +6671,7 @@
         <v>-0.171485</v>
       </c>
       <c r="D366" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.519058, gpslng1=-0.171485 WHERE idmember = 398;</v>
       </c>
     </row>
@@ -6374,7 +6686,7 @@
         <v>-0.165323</v>
       </c>
       <c r="D367" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.500846, gpslng1=-0.165323 WHERE idmember = 399;</v>
       </c>
     </row>
@@ -6389,7 +6701,7 @@
         <v>-0.16523199999999999</v>
       </c>
       <c r="D368" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.499184, gpslng1=-0.165232 WHERE idmember = 400;</v>
       </c>
     </row>
@@ -6404,7 +6716,7 @@
         <v>-0.16869500000000001</v>
       </c>
       <c r="D369" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.499843, gpslng1=-0.168695 WHERE idmember = 401;</v>
       </c>
     </row>
@@ -6419,7 +6731,7 @@
         <v>-0.178787</v>
       </c>
       <c r="D370" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.499878, gpslng1=-0.178787 WHERE idmember = 403;</v>
       </c>
     </row>
@@ -6434,7 +6746,7 @@
         <v>-0.16908300000000001</v>
       </c>
       <c r="D371" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.500078, gpslng1=-0.169083 WHERE idmember = 404;</v>
       </c>
     </row>
@@ -6449,7 +6761,7 @@
         <v>-0.164855</v>
       </c>
       <c r="D372" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.501009, gpslng1=-0.164855 WHERE idmember = 405;</v>
       </c>
     </row>
@@ -6464,7 +6776,7 @@
         <v>-0.167906</v>
       </c>
       <c r="D373" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.498493, gpslng1=-0.167906 WHERE idmember = 406;</v>
       </c>
     </row>
@@ -6479,7 +6791,7 @@
         <v>-0.167911</v>
       </c>
       <c r="D374" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.499498, gpslng1=-0.167911 WHERE idmember = 407;</v>
       </c>
     </row>
@@ -6494,7 +6806,7 @@
         <v>-0.171962</v>
       </c>
       <c r="D375" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.49815, gpslng1=-0.171962 WHERE idmember = 408;</v>
       </c>
     </row>
@@ -6509,7 +6821,7 @@
         <v>-0.17442099999999999</v>
       </c>
       <c r="D376" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.490859, gpslng1=-0.174421 WHERE idmember = 412;</v>
       </c>
     </row>
@@ -6524,7 +6836,7 @@
         <v>-0.166383</v>
       </c>
       <c r="D377" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.498786, gpslng1=-0.166383 WHERE idmember = 413;</v>
       </c>
     </row>
@@ -6539,7 +6851,7 @@
         <v>-0.163962</v>
       </c>
       <c r="D378" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.501343, gpslng1=-0.163962 WHERE idmember = 414;</v>
       </c>
     </row>
@@ -6554,7 +6866,7 @@
         <v>-0.169349</v>
       </c>
       <c r="D379" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.500191, gpslng1=-0.169349 WHERE idmember = 415;</v>
       </c>
     </row>
@@ -6569,7 +6881,7 @@
         <v>-0.16672699999999999</v>
       </c>
       <c r="D380" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.499573, gpslng1=-0.166727 WHERE idmember = 416;</v>
       </c>
     </row>
@@ -6584,7 +6896,7 @@
         <v>-0.16578699999999999</v>
       </c>
       <c r="D381" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.498918, gpslng1=-0.165787 WHERE idmember = 417;</v>
       </c>
     </row>
@@ -6599,7 +6911,7 @@
         <v>-0.163436</v>
       </c>
       <c r="D382" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.501568, gpslng1=-0.163436 WHERE idmember = 418;</v>
       </c>
     </row>
@@ -6614,7 +6926,7 @@
         <v>-0.16891600000000001</v>
       </c>
       <c r="D383" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.499607, gpslng1=-0.168916 WHERE idmember = 420;</v>
       </c>
     </row>
@@ -6629,7 +6941,7 @@
         <v>-1.537658</v>
       </c>
       <c r="D384" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=50.759146, gpslng1=-1.537658 WHERE idmember = 421;</v>
       </c>
     </row>
@@ -6644,7 +6956,7 @@
         <v>-0.162576</v>
       </c>
       <c r="D385" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.502083, gpslng1=-0.162576 WHERE idmember = 422;</v>
       </c>
     </row>
@@ -6659,7 +6971,7 @@
         <v>-0.17419699999999999</v>
       </c>
       <c r="D386" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UPDATE member SET gpslat1=51.50091, gpslng1=-0.174197 WHERE idmember = 423;</v>
       </c>
     </row>
@@ -6674,7 +6986,7 @@
         <v>-0.15881700000000001</v>
       </c>
       <c r="D387" t="str">
-        <f t="shared" ref="D387:D450" si="6">"UPDATE member SET gpslat1="&amp;B387&amp;", gpslng1="&amp;C387&amp;" WHERE idmember = "&amp;A387&amp;";"</f>
+        <f t="shared" ref="D387:D450" si="7">"UPDATE member SET gpslat1="&amp;B387&amp;", gpslng1="&amp;C387&amp;" WHERE idmember = "&amp;A387&amp;";"</f>
         <v>UPDATE member SET gpslat1=51.501679, gpslng1=-0.158817 WHERE idmember = 424;</v>
       </c>
     </row>
@@ -6689,7 +7001,7 @@
         <v>-0.16400899999999999</v>
       </c>
       <c r="D388" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.497627, gpslng1=-0.164009 WHERE idmember = 425;</v>
       </c>
     </row>
@@ -6704,7 +7016,7 @@
         <v>-0.167738</v>
       </c>
       <c r="D389" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.496157, gpslng1=-0.167738 WHERE idmember = 426;</v>
       </c>
     </row>
@@ -6719,7 +7031,7 @@
         <v>-0.17274200000000001</v>
       </c>
       <c r="D390" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.498067, gpslng1=-0.172742 WHERE idmember = 427;</v>
       </c>
     </row>
@@ -6734,7 +7046,7 @@
         <v>-0.16869500000000001</v>
       </c>
       <c r="D391" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.499843, gpslng1=-0.168695 WHERE idmember = 428;</v>
       </c>
     </row>
@@ -6749,7 +7061,7 @@
         <v>-0.16800399999999999</v>
       </c>
       <c r="D392" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.499356, gpslng1=-0.168004 WHERE idmember = 429;</v>
       </c>
     </row>
@@ -6764,7 +7076,7 @@
         <v>-0.17133100000000001</v>
       </c>
       <c r="D393" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.498773, gpslng1=-0.171331 WHERE idmember = 430;</v>
       </c>
     </row>
@@ -6779,7 +7091,7 @@
         <v>-0.164796</v>
       </c>
       <c r="D394" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.500292, gpslng1=-0.164796 WHERE idmember = 431;</v>
       </c>
     </row>
@@ -6794,7 +7106,7 @@
         <v>-2.6311550000000001</v>
       </c>
       <c r="D395" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.477848, gpslng1=-2.631155 WHERE idmember = 433;</v>
       </c>
     </row>
@@ -6809,7 +7121,7 @@
         <v>-0.156719</v>
       </c>
       <c r="D396" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.500497, gpslng1=-0.156719 WHERE idmember = 434;</v>
       </c>
     </row>
@@ -6824,7 +7136,7 @@
         <v>-0.170376</v>
       </c>
       <c r="D397" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.500522, gpslng1=-0.170376 WHERE idmember = 435;</v>
       </c>
     </row>
@@ -6839,7 +7151,7 @@
         <v>-0.16982900000000001</v>
       </c>
       <c r="D398" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.497802, gpslng1=-0.169829 WHERE idmember = 437;</v>
       </c>
     </row>
@@ -6854,7 +7166,7 @@
         <v>-0.17969299999999999</v>
       </c>
       <c r="D399" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.500712, gpslng1=-0.179693 WHERE idmember = 438;</v>
       </c>
     </row>
@@ -6869,7 +7181,7 @@
         <v>-0.167324</v>
       </c>
       <c r="D400" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.501288, gpslng1=-0.167324 WHERE idmember = 439;</v>
       </c>
     </row>
@@ -6884,7 +7196,7 @@
         <v>-0.16785</v>
       </c>
       <c r="D401" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.498844, gpslng1=-0.16785 WHERE idmember = 440;</v>
       </c>
     </row>
@@ -6899,7 +7211,7 @@
         <v>-0.16842099999999999</v>
       </c>
       <c r="D402" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.499215, gpslng1=-0.168421 WHERE idmember = 441;</v>
       </c>
     </row>
@@ -6914,7 +7226,7 @@
         <v>-0.16058500000000001</v>
       </c>
       <c r="D403" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.501953, gpslng1=-0.160585 WHERE idmember = 442;</v>
       </c>
     </row>
@@ -6929,7 +7241,7 @@
         <v>-0.167991</v>
       </c>
       <c r="D404" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.50016, gpslng1=-0.167991 WHERE idmember = 443;</v>
       </c>
     </row>
@@ -6944,7 +7256,7 @@
         <v>-1.8683149999999999</v>
       </c>
       <c r="D405" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=50.718849, gpslng1=-1.868315 WHERE idmember = 444;</v>
       </c>
     </row>
@@ -6959,7 +7271,7 @@
         <v>-0.16749600000000001</v>
       </c>
       <c r="D406" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.49818, gpslng1=-0.167496 WHERE idmember = 445;</v>
       </c>
     </row>
@@ -6974,7 +7286,7 @@
         <v>-0.167216</v>
       </c>
       <c r="D407" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.500099, gpslng1=-0.167216 WHERE idmember = 446;</v>
       </c>
     </row>
@@ -6989,7 +7301,7 @@
         <v>-0.170376</v>
       </c>
       <c r="D408" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.500522, gpslng1=-0.170376 WHERE idmember = 447;</v>
       </c>
     </row>
@@ -7004,7 +7316,7 @@
         <v>-0.17033599999999999</v>
       </c>
       <c r="D409" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.500133, gpslng1=-0.170336 WHERE idmember = 448;</v>
       </c>
     </row>
@@ -7019,7 +7331,7 @@
         <v>-0.17932999999999999</v>
       </c>
       <c r="D410" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.500479, gpslng1=-0.17933 WHERE idmember = 449;</v>
       </c>
     </row>
@@ -7034,7 +7346,7 @@
         <v>-0.14794399999999999</v>
       </c>
       <c r="D411" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.510159, gpslng1=-0.147944 WHERE idmember = 451;</v>
       </c>
     </row>
@@ -7049,7 +7361,7 @@
         <v>-0.16784299999999999</v>
       </c>
       <c r="D412" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.501193, gpslng1=-0.167843 WHERE idmember = 452;</v>
       </c>
     </row>
@@ -7064,7 +7376,7 @@
         <v>-0.16400899999999999</v>
       </c>
       <c r="D413" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.497627, gpslng1=-0.164009 WHERE idmember = 453;</v>
       </c>
     </row>
@@ -7079,7 +7391,7 @@
         <v>-0.17161599999999999</v>
       </c>
       <c r="D414" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.49997, gpslng1=-0.171616 WHERE idmember = 454;</v>
       </c>
     </row>
@@ -7094,7 +7406,7 @@
         <v>-0.17924100000000001</v>
       </c>
       <c r="D415" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.498396, gpslng1=-0.179241 WHERE idmember = 455;</v>
       </c>
     </row>
@@ -7109,7 +7421,7 @@
         <v>-0.157885</v>
       </c>
       <c r="D416" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.501342, gpslng1=-0.157885 WHERE idmember = 456;</v>
       </c>
     </row>
@@ -7124,7 +7436,7 @@
         <v>-0.15767200000000001</v>
       </c>
       <c r="D417" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.50246, gpslng1=-0.157672 WHERE idmember = 458;</v>
       </c>
     </row>
@@ -7139,7 +7451,7 @@
         <v>-0.17413400000000001</v>
       </c>
       <c r="D418" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.500076, gpslng1=-0.174134 WHERE idmember = 459;</v>
       </c>
     </row>
@@ -7154,7 +7466,7 @@
         <v>77.186431999999996</v>
       </c>
       <c r="D419" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=28.569141, gpslng1=77.186432 WHERE idmember = 460;</v>
       </c>
     </row>
@@ -7169,7 +7481,7 @@
         <v>-0.16505500000000001</v>
       </c>
       <c r="D420" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.497615, gpslng1=-0.165055 WHERE idmember = 461;</v>
       </c>
     </row>
@@ -7184,7 +7496,7 @@
         <v>-0.16722500000000001</v>
       </c>
       <c r="D421" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.500046, gpslng1=-0.167225 WHERE idmember = 462;</v>
       </c>
     </row>
@@ -7199,7 +7511,7 @@
         <v>-0.16623499999999999</v>
       </c>
       <c r="D422" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.495692, gpslng1=-0.166235 WHERE idmember = 463;</v>
       </c>
     </row>
@@ -7214,7 +7526,7 @@
         <v>-0.16105900000000001</v>
       </c>
       <c r="D423" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.500074, gpslng1=-0.161059 WHERE idmember = 465;</v>
       </c>
     </row>
@@ -7229,7 +7541,7 @@
         <v>-0.16781199999999999</v>
       </c>
       <c r="D424" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.496668, gpslng1=-0.167812 WHERE idmember = 466;</v>
       </c>
     </row>
@@ -7244,7 +7556,7 @@
         <v>-0.16947000000000001</v>
       </c>
       <c r="D425" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.498349, gpslng1=-0.16947 WHERE idmember = 467;</v>
       </c>
     </row>
@@ -7259,7 +7571,7 @@
         <v>-0.15698100000000001</v>
       </c>
       <c r="D426" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.501242, gpslng1=-0.156981 WHERE idmember = 469;</v>
       </c>
     </row>
@@ -7274,7 +7586,7 @@
         <v>-0.169845</v>
       </c>
       <c r="D427" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.501499, gpslng1=-0.169845 WHERE idmember = 470;</v>
       </c>
     </row>
@@ -7289,7 +7601,7 @@
         <v>-0.17161599999999999</v>
       </c>
       <c r="D428" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.49997, gpslng1=-0.171616 WHERE idmember = 471;</v>
       </c>
     </row>
@@ -7304,7 +7616,7 @@
         <v>-4.482952</v>
       </c>
       <c r="D429" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=55.613891, gpslng1=-4.482952 WHERE idmember = 472;</v>
       </c>
     </row>
@@ -7319,7 +7631,7 @@
         <v>-0.174094</v>
       </c>
       <c r="D430" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.500912, gpslng1=-0.174094 WHERE idmember = 474;</v>
       </c>
     </row>
@@ -7334,7 +7646,7 @@
         <v>-0.15989800000000001</v>
       </c>
       <c r="D431" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.502173, gpslng1=-0.159898 WHERE idmember = 475;</v>
       </c>
     </row>
@@ -7349,7 +7661,7 @@
         <v>-0.13663</v>
       </c>
       <c r="D432" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.498357, gpslng1=-0.13663 WHERE idmember = 477;</v>
       </c>
     </row>
@@ -7364,7 +7676,7 @@
         <v>-0.16778699999999999</v>
       </c>
       <c r="D433" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.498785, gpslng1=-0.167787 WHERE idmember = 478;</v>
       </c>
     </row>
@@ -7379,7 +7691,7 @@
         <v>-0.170961</v>
       </c>
       <c r="D434" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.498791, gpslng1=-0.170961 WHERE idmember = 480;</v>
       </c>
     </row>
@@ -7394,7 +7706,7 @@
         <v>-0.183534</v>
       </c>
       <c r="D435" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.518091, gpslng1=-0.183534 WHERE idmember = 481;</v>
       </c>
     </row>
@@ -7409,7 +7721,7 @@
         <v>-0.157724</v>
       </c>
       <c r="D436" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.500708, gpslng1=-0.157724 WHERE idmember = 483;</v>
       </c>
     </row>
@@ -7424,7 +7736,7 @@
         <v>-0.17161599999999999</v>
       </c>
       <c r="D437" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.49997, gpslng1=-0.171616 WHERE idmember = 484;</v>
       </c>
     </row>
@@ -7439,7 +7751,7 @@
         <v>-0.15176799999999999</v>
       </c>
       <c r="D438" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.521183, gpslng1=-0.151768 WHERE idmember = 485;</v>
       </c>
     </row>
@@ -7454,7 +7766,7 @@
         <v>-0.17194100000000001</v>
       </c>
       <c r="D439" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.501625, gpslng1=-0.171941 WHERE idmember = 486;</v>
       </c>
     </row>
@@ -7469,7 +7781,7 @@
         <v>-0.16651299999999999</v>
       </c>
       <c r="D440" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.499251, gpslng1=-0.166513 WHERE idmember = 487;</v>
       </c>
     </row>
@@ -7484,7 +7796,7 @@
         <v>-0.167657</v>
       </c>
       <c r="D441" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.501116, gpslng1=-0.167657 WHERE idmember = 488;</v>
       </c>
     </row>
@@ -7499,7 +7811,7 @@
         <v>-2.584381</v>
       </c>
       <c r="D442" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=49.437273, gpslng1=-2.584381 WHERE idmember = 489;</v>
       </c>
     </row>
@@ -7514,7 +7826,7 @@
         <v>-0.136513</v>
       </c>
       <c r="D443" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.492285, gpslng1=-0.136513 WHERE idmember = 490;</v>
       </c>
     </row>
@@ -7529,7 +7841,7 @@
         <v>-0.16772400000000001</v>
       </c>
       <c r="D444" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.501215, gpslng1=-0.167724 WHERE idmember = 492;</v>
       </c>
     </row>
@@ -7544,7 +7856,7 @@
         <v>-0.16906399999999999</v>
       </c>
       <c r="D445" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.501541, gpslng1=-0.169064 WHERE idmember = 494;</v>
       </c>
     </row>
@@ -7559,7 +7871,7 @@
         <v>-0.17194100000000001</v>
       </c>
       <c r="D446" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.501625, gpslng1=-0.171941 WHERE idmember = 495;</v>
       </c>
     </row>
@@ -7574,7 +7886,7 @@
         <v>-0.16794999999999999</v>
       </c>
       <c r="D447" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.499668, gpslng1=-0.16795 WHERE idmember = 496;</v>
       </c>
     </row>
@@ -7589,7 +7901,7 @@
         <v>-0.163636</v>
       </c>
       <c r="D448" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.500728, gpslng1=-0.163636 WHERE idmember = 497;</v>
       </c>
     </row>
@@ -7604,7 +7916,7 @@
         <v>-0.16780400000000001</v>
       </c>
       <c r="D449" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.499515, gpslng1=-0.167804 WHERE idmember = 498;</v>
       </c>
     </row>
@@ -7619,7 +7931,7 @@
         <v>-0.16128000000000001</v>
       </c>
       <c r="D450" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UPDATE member SET gpslat1=51.494593, gpslng1=-0.16128 WHERE idmember = 499;</v>
       </c>
     </row>
@@ -7634,7 +7946,7 @@
         <v>-0.159664</v>
       </c>
       <c r="D451" t="str">
-        <f t="shared" ref="D451:D514" si="7">"UPDATE member SET gpslat1="&amp;B451&amp;", gpslng1="&amp;C451&amp;" WHERE idmember = "&amp;A451&amp;";"</f>
+        <f t="shared" ref="D451:D514" si="8">"UPDATE member SET gpslat1="&amp;B451&amp;", gpslng1="&amp;C451&amp;" WHERE idmember = "&amp;A451&amp;";"</f>
         <v>UPDATE member SET gpslat1=51.501582, gpslng1=-0.159664 WHERE idmember = 500;</v>
       </c>
     </row>
@@ -7649,7 +7961,7 @@
         <v>-0.17109099999999999</v>
       </c>
       <c r="D452" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.498946, gpslng1=-0.171091 WHERE idmember = 502;</v>
       </c>
     </row>
@@ -7664,7 +7976,7 @@
         <v>-0.16785</v>
       </c>
       <c r="D453" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.498844, gpslng1=-0.16785 WHERE idmember = 503;</v>
       </c>
     </row>
@@ -7679,7 +7991,7 @@
         <v>-0.16051599999999999</v>
       </c>
       <c r="D454" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.501553, gpslng1=-0.160516 WHERE idmember = 504;</v>
       </c>
     </row>
@@ -7694,7 +8006,7 @@
         <v>-0.163962</v>
       </c>
       <c r="D455" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.501343, gpslng1=-0.163962 WHERE idmember = 505;</v>
       </c>
     </row>
@@ -7709,7 +8021,7 @@
         <v>-111.914382</v>
       </c>
       <c r="D456" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=33.64398, gpslng1=-111.914382 WHERE idmember = 506;</v>
       </c>
     </row>
@@ -7724,7 +8036,7 @@
         <v>-1.5134879999999999</v>
       </c>
       <c r="D457" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.924739, gpslng1=-1.513488 WHERE idmember = 507;</v>
       </c>
     </row>
@@ -7739,7 +8051,7 @@
         <v>-0.16716700000000001</v>
       </c>
       <c r="D458" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.499899, gpslng1=-0.167167 WHERE idmember = 508;</v>
       </c>
     </row>
@@ -7754,7 +8066,7 @@
         <v>-0.16577</v>
       </c>
       <c r="D459" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.496811, gpslng1=-0.16577 WHERE idmember = 509;</v>
       </c>
     </row>
@@ -7769,7 +8081,7 @@
         <v>-0.171598</v>
       </c>
       <c r="D460" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.499634, gpslng1=-0.171598 WHERE idmember = 510;</v>
       </c>
     </row>
@@ -7784,7 +8096,7 @@
         <v>0.26053399999999999</v>
       </c>
       <c r="D461" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.732059, gpslng1=0.260534 WHERE idmember = 511;</v>
       </c>
     </row>
@@ -7799,7 +8111,7 @@
         <v>7.423146</v>
       </c>
       <c r="D462" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=43.737847, gpslng1=7.423146 WHERE idmember = 514;</v>
       </c>
     </row>
@@ -7814,7 +8126,7 @@
         <v>-0.18559600000000001</v>
       </c>
       <c r="D463" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.493662, gpslng1=-0.185596 WHERE idmember = 515;</v>
       </c>
     </row>
@@ -7829,7 +8141,7 @@
         <v>-0.17410100000000001</v>
       </c>
       <c r="D464" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.498181, gpslng1=-0.174101 WHERE idmember = 516;</v>
       </c>
     </row>
@@ -7844,7 +8156,7 @@
         <v>-0.157194</v>
       </c>
       <c r="D465" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.489094, gpslng1=-0.157194 WHERE idmember = 518;</v>
       </c>
     </row>
@@ -7859,7 +8171,7 @@
         <v>-0.16722500000000001</v>
       </c>
       <c r="D466" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.500201, gpslng1=-0.167225 WHERE idmember = 519;</v>
       </c>
     </row>
@@ -7874,7 +8186,7 @@
         <v>-0.16747300000000001</v>
       </c>
       <c r="D467" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.500047, gpslng1=-0.167473 WHERE idmember = 520;</v>
       </c>
     </row>
@@ -7889,7 +8201,7 @@
         <v>-0.16869500000000001</v>
       </c>
       <c r="D468" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.499843, gpslng1=-0.168695 WHERE idmember = 521;</v>
       </c>
     </row>
@@ -7904,7 +8216,7 @@
         <v>-0.16816400000000001</v>
       </c>
       <c r="D469" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.498666, gpslng1=-0.168164 WHERE idmember = 522;</v>
       </c>
     </row>
@@ -7919,7 +8231,7 @@
         <v>-0.175125</v>
       </c>
       <c r="D470" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.500629, gpslng1=-0.175125 WHERE idmember = 523;</v>
       </c>
     </row>
@@ -7934,7 +8246,7 @@
         <v>-0.16759299999999999</v>
       </c>
       <c r="D471" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.498494, gpslng1=-0.167593 WHERE idmember = 524;</v>
       </c>
     </row>
@@ -7949,7 +8261,7 @@
         <v>-0.162629</v>
       </c>
       <c r="D472" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.498326, gpslng1=-0.162629 WHERE idmember = 525;</v>
       </c>
     </row>
@@ -7964,7 +8276,7 @@
         <v>-0.16469300000000001</v>
       </c>
       <c r="D473" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.500685, gpslng1=-0.164693 WHERE idmember = 526;</v>
       </c>
     </row>
@@ -7979,7 +8291,7 @@
         <v>-0.17663999999999999</v>
       </c>
       <c r="D474" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.500339, gpslng1=-0.17664 WHERE idmember = 527;</v>
       </c>
     </row>
@@ -7994,7 +8306,7 @@
         <v>-0.16140699999999999</v>
       </c>
       <c r="D475" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.515109, gpslng1=-0.161407 WHERE idmember = 530;</v>
       </c>
     </row>
@@ -8009,7 +8321,7 @@
         <v>-0.167495</v>
       </c>
       <c r="D476" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.498655, gpslng1=-0.167495 WHERE idmember = 531;</v>
       </c>
     </row>
@@ -8024,7 +8336,7 @@
         <v>-0.16957700000000001</v>
       </c>
       <c r="D477" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.498372, gpslng1=-0.169577 WHERE idmember = 532;</v>
       </c>
     </row>
@@ -8039,7 +8351,7 @@
         <v>-79.389471999999998</v>
       </c>
       <c r="D478" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=43.729139, gpslng1=-79.389472 WHERE idmember = 533;</v>
       </c>
     </row>
@@ -8054,7 +8366,7 @@
         <v>-3.6302889999999999</v>
       </c>
       <c r="D479" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=50.32649, gpslng1=-3.630289 WHERE idmember = 536;</v>
       </c>
     </row>
@@ -8069,7 +8381,7 @@
         <v>-0.17064199999999999</v>
       </c>
       <c r="D480" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.498994, gpslng1=-0.170642 WHERE idmember = 537;</v>
       </c>
     </row>
@@ -8084,7 +8396,7 @@
         <v>-0.16553699999999999</v>
       </c>
       <c r="D481" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.500269, gpslng1=-0.165537 WHERE idmember = 538;</v>
       </c>
     </row>
@@ -8099,7 +8411,7 @@
         <v>-0.16783699999999999</v>
       </c>
       <c r="D482" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.500676, gpslng1=-0.167837 WHERE idmember = 540;</v>
       </c>
     </row>
@@ -8114,7 +8426,7 @@
         <v>-2.3869769999999999</v>
       </c>
       <c r="D483" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.441838, gpslng1=-2.386977 WHERE idmember = 541;</v>
       </c>
     </row>
@@ -8129,7 +8441,7 @@
         <v>-0.17052999999999999</v>
       </c>
       <c r="D484" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.499018, gpslng1=-0.17053 WHERE idmember = 542;</v>
       </c>
     </row>
@@ -8144,7 +8456,7 @@
         <v>-0.162914</v>
       </c>
       <c r="D485" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.50158, gpslng1=-0.162914 WHERE idmember = 543;</v>
       </c>
     </row>
@@ -8159,7 +8471,7 @@
         <v>-0.16886999999999999</v>
       </c>
       <c r="D486" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.499525, gpslng1=-0.16887 WHERE idmember = 544;</v>
       </c>
     </row>
@@ -8174,7 +8486,7 @@
         <v>-0.16794300000000001</v>
       </c>
       <c r="D487" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.49961, gpslng1=-0.167943 WHERE idmember = 545;</v>
       </c>
     </row>
@@ -8189,7 +8501,7 @@
         <v>-0.17100799999999999</v>
       </c>
       <c r="D488" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.500584, gpslng1=-0.171008 WHERE idmember = 546;</v>
       </c>
     </row>
@@ -8204,7 +8516,7 @@
         <v>-0.16783699999999999</v>
       </c>
       <c r="D489" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.500676, gpslng1=-0.167837 WHERE idmember = 549;</v>
       </c>
     </row>
@@ -8219,7 +8531,7 @@
         <v>-0.17107700000000001</v>
       </c>
       <c r="D490" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.499016, gpslng1=-0.171077 WHERE idmember = 550;</v>
       </c>
     </row>
@@ -8234,7 +8546,7 @@
         <v>-0.16859299999999999</v>
       </c>
       <c r="D491" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.499593, gpslng1=-0.168593 WHERE idmember = 551;</v>
       </c>
     </row>
@@ -8249,7 +8561,7 @@
         <v>-0.167657</v>
       </c>
       <c r="D492" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.501116, gpslng1=-0.167657 WHERE idmember = 552;</v>
       </c>
     </row>
@@ -8264,7 +8576,7 @@
         <v>-0.169679</v>
       </c>
       <c r="D493" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.499643, gpslng1=-0.169679 WHERE idmember = 553;</v>
       </c>
     </row>
@@ -8279,7 +8591,7 @@
         <v>-0.157638</v>
       </c>
       <c r="D494" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.498293, gpslng1=-0.157638 WHERE idmember = 554;</v>
       </c>
     </row>
@@ -8294,7 +8606,7 @@
         <v>-0.16783699999999999</v>
       </c>
       <c r="D495" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.500676, gpslng1=-0.167837 WHERE idmember = 555;</v>
       </c>
     </row>
@@ -8309,7 +8621,7 @@
         <v>-0.17100799999999999</v>
       </c>
       <c r="D496" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.500584, gpslng1=-0.171008 WHERE idmember = 556;</v>
       </c>
     </row>
@@ -8324,7 +8636,7 @@
         <v>-0.162576</v>
       </c>
       <c r="D497" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.502083, gpslng1=-0.162576 WHERE idmember = 557;</v>
       </c>
     </row>
@@ -8339,7 +8651,7 @@
         <v>-0.17344200000000001</v>
       </c>
       <c r="D498" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.497814, gpslng1=-0.173442 WHERE idmember = 558;</v>
       </c>
     </row>
@@ -8354,7 +8666,7 @@
         <v>-0.17161599999999999</v>
       </c>
       <c r="D499" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.49997, gpslng1=-0.171616 WHERE idmember = 559;</v>
       </c>
     </row>
@@ -8369,7 +8681,7 @@
         <v>-0.157911</v>
       </c>
       <c r="D500" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.500868, gpslng1=-0.157911 WHERE idmember = 560;</v>
       </c>
     </row>
@@ -8384,7 +8696,7 @@
         <v>-0.16869500000000001</v>
       </c>
       <c r="D501" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.499843, gpslng1=-0.168695 WHERE idmember = 561;</v>
       </c>
     </row>
@@ -8399,7 +8711,7 @@
         <v>-0.17052999999999999</v>
       </c>
       <c r="D502" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.499018, gpslng1=-0.17053 WHERE idmember = 562;</v>
       </c>
     </row>
@@ -8414,7 +8726,7 @@
         <v>-0.17169300000000001</v>
       </c>
       <c r="D503" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.499382, gpslng1=-0.171693 WHERE idmember = 564;</v>
       </c>
     </row>
@@ -8429,7 +8741,7 @@
         <v>-0.168102</v>
       </c>
       <c r="D504" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.498774, gpslng1=-0.168102 WHERE idmember = 565;</v>
       </c>
     </row>
@@ -8444,7 +8756,7 @@
         <v>-1.9171309999999999</v>
       </c>
       <c r="D505" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=50.722474, gpslng1=-1.917131 WHERE idmember = 566;</v>
       </c>
     </row>
@@ -8459,7 +8771,7 @@
         <v>-0.15584400000000001</v>
       </c>
       <c r="D506" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.500043, gpslng1=-0.155844 WHERE idmember = 567;</v>
       </c>
     </row>
@@ -8474,7 +8786,7 @@
         <v>-0.16419400000000001</v>
       </c>
       <c r="D507" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.500231, gpslng1=-0.164194 WHERE idmember = 568;</v>
       </c>
     </row>
@@ -8489,7 +8801,7 @@
         <v>-0.16105900000000001</v>
       </c>
       <c r="D508" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.500074, gpslng1=-0.161059 WHERE idmember = 569;</v>
       </c>
     </row>
@@ -8504,7 +8816,7 @@
         <v>-0.16749600000000001</v>
       </c>
       <c r="D509" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.49818, gpslng1=-0.167496 WHERE idmember = 570;</v>
       </c>
     </row>
@@ -8519,7 +8831,7 @@
         <v>-0.16749</v>
       </c>
       <c r="D510" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.498669, gpslng1=-0.16749 WHERE idmember = 571;</v>
       </c>
     </row>
@@ -8534,7 +8846,7 @@
         <v>-0.15670200000000001</v>
       </c>
       <c r="D511" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.500722, gpslng1=-0.156702 WHERE idmember = 572;</v>
       </c>
     </row>
@@ -8549,7 +8861,7 @@
         <v>-0.16430800000000001</v>
       </c>
       <c r="D512" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.500427, gpslng1=-0.164308 WHERE idmember = 573;</v>
       </c>
     </row>
@@ -8564,7 +8876,7 @@
         <v>-0.17940200000000001</v>
       </c>
       <c r="D513" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.491419, gpslng1=-0.179402 WHERE idmember = 575;</v>
       </c>
     </row>
@@ -8579,7 +8891,7 @@
         <v>-0.17194100000000001</v>
       </c>
       <c r="D514" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UPDATE member SET gpslat1=51.501625, gpslng1=-0.171941 WHERE idmember = 576;</v>
       </c>
     </row>
@@ -8594,7 +8906,7 @@
         <v>-0.158998</v>
       </c>
       <c r="D515" t="str">
-        <f t="shared" ref="D515:D578" si="8">"UPDATE member SET gpslat1="&amp;B515&amp;", gpslng1="&amp;C515&amp;" WHERE idmember = "&amp;A515&amp;";"</f>
+        <f t="shared" ref="D515:D578" si="9">"UPDATE member SET gpslat1="&amp;B515&amp;", gpslng1="&amp;C515&amp;" WHERE idmember = "&amp;A515&amp;";"</f>
         <v>UPDATE member SET gpslat1=51.500604, gpslng1=-0.158998 WHERE idmember = 578;</v>
       </c>
     </row>
@@ -8609,7 +8921,7 @@
         <v>-0.16564200000000001</v>
       </c>
       <c r="D516" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.497125, gpslng1=-0.165642 WHERE idmember = 579;</v>
       </c>
     </row>
@@ -8624,7 +8936,7 @@
         <v>-0.164491</v>
       </c>
       <c r="D517" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.484836, gpslng1=-0.164491 WHERE idmember = 580;</v>
       </c>
     </row>
@@ -8639,7 +8951,7 @@
         <v>-0.16794400000000001</v>
       </c>
       <c r="D518" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.496065, gpslng1=-0.167944 WHERE idmember = 583;</v>
       </c>
     </row>
@@ -8654,7 +8966,7 @@
         <v>-0.15889300000000001</v>
       </c>
       <c r="D519" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.523155, gpslng1=-0.158893 WHERE idmember = 584;</v>
       </c>
     </row>
@@ -8669,7 +8981,7 @@
         <v>-0.14083000000000001</v>
       </c>
       <c r="D520" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.495554, gpslng1=-0.14083 WHERE idmember = 585;</v>
       </c>
     </row>
@@ -8684,7 +8996,7 @@
         <v>-0.163962</v>
       </c>
       <c r="D521" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.501343, gpslng1=-0.163962 WHERE idmember = 586;</v>
       </c>
     </row>
@@ -8699,7 +9011,7 @@
         <v>-0.13388900000000001</v>
       </c>
       <c r="D522" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.50753, gpslng1=-0.133889 WHERE idmember = 587;</v>
       </c>
     </row>
@@ -8714,7 +9026,7 @@
         <v>-0.17107700000000001</v>
       </c>
       <c r="D523" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.499016, gpslng1=-0.171077 WHERE idmember = 588;</v>
       </c>
     </row>
@@ -8729,7 +9041,7 @@
         <v>-0.14757799999999999</v>
       </c>
       <c r="D524" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.509351, gpslng1=-0.147578 WHERE idmember = 589;</v>
       </c>
     </row>
@@ -8744,7 +9056,7 @@
         <v>-0.16089800000000001</v>
       </c>
       <c r="D525" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.500276, gpslng1=-0.160898 WHERE idmember = 590;</v>
       </c>
     </row>
@@ -8759,7 +9071,7 @@
         <v>-0.17194100000000001</v>
       </c>
       <c r="D526" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.501625, gpslng1=-0.171941 WHERE idmember = 591;</v>
       </c>
     </row>
@@ -8774,7 +9086,7 @@
         <v>-0.15812799999999999</v>
       </c>
       <c r="D527" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.500973, gpslng1=-0.158128 WHERE idmember = 592;</v>
       </c>
     </row>
@@ -8789,7 +9101,7 @@
         <v>-0.16028100000000001</v>
       </c>
       <c r="D528" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.497745, gpslng1=-0.160281 WHERE idmember = 593;</v>
       </c>
     </row>
@@ -8804,7 +9116,7 @@
         <v>-0.171429</v>
       </c>
       <c r="D529" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.498739, gpslng1=-0.171429 WHERE idmember = 594;</v>
       </c>
     </row>
@@ -8819,7 +9131,7 @@
         <v>-0.164772</v>
       </c>
       <c r="D530" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.50021, gpslng1=-0.164772 WHERE idmember = 595;</v>
       </c>
     </row>
@@ -8834,7 +9146,7 @@
         <v>-0.587557</v>
       </c>
       <c r="D531" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.16961, gpslng1=-0.587557 WHERE idmember = 596;</v>
       </c>
     </row>
@@ -8849,7 +9161,7 @@
         <v>-3.4117839999999999</v>
       </c>
       <c r="D532" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=52.981471, gpslng1=-3.411784 WHERE idmember = 597;</v>
       </c>
     </row>
@@ -8864,7 +9176,7 @@
         <v>-0.164686</v>
       </c>
       <c r="D533" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.500385, gpslng1=-0.164686 WHERE idmember = 598;</v>
       </c>
     </row>
@@ -8879,7 +9191,7 @@
         <v>-0.239098</v>
       </c>
       <c r="D534" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.57928, gpslng1=-0.239098 WHERE idmember = 599;</v>
       </c>
     </row>
@@ -8894,7 +9206,7 @@
         <v>-0.17161599999999999</v>
       </c>
       <c r="D535" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.49997, gpslng1=-0.171616 WHERE idmember = 600;</v>
       </c>
     </row>
@@ -8909,7 +9221,7 @@
         <v>-0.159332</v>
       </c>
       <c r="D536" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.499506, gpslng1=-0.159332 WHERE idmember = 601;</v>
       </c>
     </row>
@@ -8924,7 +9236,7 @@
         <v>-0.168102</v>
       </c>
       <c r="D537" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.498774, gpslng1=-0.168102 WHERE idmember = 602;</v>
       </c>
     </row>
@@ -8939,7 +9251,7 @@
         <v>-0.17228499999999999</v>
       </c>
       <c r="D538" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.498355, gpslng1=-0.172285 WHERE idmember = 603;</v>
       </c>
     </row>
@@ -8954,7 +9266,7 @@
         <v>-0.174094</v>
       </c>
       <c r="D539" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.500912, gpslng1=-0.174094 WHERE idmember = 604;</v>
       </c>
     </row>
@@ -8969,7 +9281,7 @@
         <v>-0.171317</v>
       </c>
       <c r="D540" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.499768, gpslng1=-0.171317 WHERE idmember = 605;</v>
       </c>
     </row>
@@ -8984,7 +9296,7 @@
         <v>-1.125931</v>
       </c>
       <c r="D541" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=52.200495, gpslng1=-1.125931 WHERE idmember = 606;</v>
       </c>
     </row>
@@ -8999,7 +9311,7 @@
         <v>-0.16511400000000001</v>
       </c>
       <c r="D542" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.500167, gpslng1=-0.165114 WHERE idmember = 607;</v>
       </c>
     </row>
@@ -9014,7 +9326,7 @@
         <v>-0.17382500000000001</v>
       </c>
       <c r="D543" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.498467, gpslng1=-0.173825 WHERE idmember = 608;</v>
       </c>
     </row>
@@ -9029,7 +9341,7 @@
         <v>-0.166824</v>
       </c>
       <c r="D544" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.50161, gpslng1=-0.166824 WHERE idmember = 610;</v>
       </c>
     </row>
@@ -9044,7 +9356,7 @@
         <v>-0.16824600000000001</v>
       </c>
       <c r="D545" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.496749, gpslng1=-0.168246 WHERE idmember = 611;</v>
       </c>
     </row>
@@ -9059,7 +9371,7 @@
         <v>-0.16605</v>
       </c>
       <c r="D546" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.499389, gpslng1=-0.16605 WHERE idmember = 612;</v>
       </c>
     </row>
@@ -9074,7 +9386,7 @@
         <v>-0.17108999999999999</v>
       </c>
       <c r="D547" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.499278, gpslng1=-0.17109 WHERE idmember = 613;</v>
       </c>
     </row>
@@ -9089,7 +9401,7 @@
         <v>-0.16478599999999999</v>
       </c>
       <c r="D548" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.500973, gpslng1=-0.164786 WHERE idmember = 614;</v>
       </c>
     </row>
@@ -9104,7 +9416,7 @@
         <v>-0.16539499999999999</v>
       </c>
       <c r="D549" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.498939, gpslng1=-0.165395 WHERE idmember = 615;</v>
       </c>
     </row>
@@ -9119,7 +9431,7 @@
         <v>-0.17013400000000001</v>
       </c>
       <c r="D550" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.500062, gpslng1=-0.170134 WHERE idmember = 616;</v>
       </c>
     </row>
@@ -9134,7 +9446,7 @@
         <v>145.00685899999999</v>
       </c>
       <c r="D551" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=-37.840139, gpslng1=145.006859 WHERE idmember = 617;</v>
       </c>
     </row>
@@ -9149,7 +9461,7 @@
         <v>138.51051000000001</v>
       </c>
       <c r="D552" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=-34.97665, gpslng1=138.51051 WHERE idmember = 618;</v>
       </c>
     </row>
@@ -9164,7 +9476,7 @@
         <v>-0.17107700000000001</v>
       </c>
       <c r="D553" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.499016, gpslng1=-0.171077 WHERE idmember = 619;</v>
       </c>
     </row>
@@ -9179,7 +9491,7 @@
         <v>-0.166689</v>
       </c>
       <c r="D554" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.501179, gpslng1=-0.166689 WHERE idmember = 620;</v>
       </c>
     </row>
@@ -9194,7 +9506,7 @@
         <v>-0.16551099999999999</v>
       </c>
       <c r="D555" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.499337, gpslng1=-0.165511 WHERE idmember = 621;</v>
       </c>
     </row>
@@ -9209,7 +9521,7 @@
         <v>-0.17194100000000001</v>
       </c>
       <c r="D556" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.501625, gpslng1=-0.171941 WHERE idmember = 622;</v>
       </c>
     </row>
@@ -9224,7 +9536,7 @@
         <v>-0.167188</v>
       </c>
       <c r="D557" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.49906, gpslng1=-0.167188 WHERE idmember = 623;</v>
       </c>
     </row>
@@ -9239,7 +9551,7 @@
         <v>-0.166547</v>
       </c>
       <c r="D558" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.500889, gpslng1=-0.166547 WHERE idmember = 624;</v>
       </c>
     </row>
@@ -9254,7 +9566,7 @@
         <v>-0.17241500000000001</v>
       </c>
       <c r="D559" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.498194, gpslng1=-0.172415 WHERE idmember = 626;</v>
       </c>
     </row>
@@ -9269,7 +9581,7 @@
         <v>-0.16982900000000001</v>
       </c>
       <c r="D560" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.497802, gpslng1=-0.169829 WHERE idmember = 627;</v>
       </c>
     </row>
@@ -9284,7 +9596,7 @@
         <v>-0.17650399999999999</v>
       </c>
       <c r="D561" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.500963, gpslng1=-0.176504 WHERE idmember = 628;</v>
       </c>
     </row>
@@ -9299,7 +9611,7 @@
         <v>-0.164331</v>
       </c>
       <c r="D562" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.49063, gpslng1=-0.164331 WHERE idmember = 629;</v>
       </c>
     </row>
@@ -9314,7 +9626,7 @@
         <v>-0.16962099999999999</v>
       </c>
       <c r="D563" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.499406, gpslng1=-0.169621 WHERE idmember = 630;</v>
       </c>
     </row>
@@ -9329,7 +9641,7 @@
         <v>-0.166079</v>
       </c>
       <c r="D564" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.499693, gpslng1=-0.166079 WHERE idmember = 631;</v>
       </c>
     </row>
@@ -9344,7 +9656,7 @@
         <v>-0.16515299999999999</v>
       </c>
       <c r="D565" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.501532, gpslng1=-0.165153 WHERE idmember = 632;</v>
       </c>
     </row>
@@ -9359,7 +9671,7 @@
         <v>-0.168461</v>
       </c>
       <c r="D566" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.501318, gpslng1=-0.168461 WHERE idmember = 633;</v>
       </c>
     </row>
@@ -9374,7 +9686,7 @@
         <v>-0.16869200000000001</v>
       </c>
       <c r="D567" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.500126, gpslng1=-0.168692 WHERE idmember = 634;</v>
       </c>
     </row>
@@ -9389,7 +9701,7 @@
         <v>-0.16516500000000001</v>
       </c>
       <c r="D568" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.500306, gpslng1=-0.165165 WHERE idmember = 635;</v>
       </c>
     </row>
@@ -9404,7 +9716,7 @@
         <v>-0.168794</v>
       </c>
       <c r="D569" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.500074, gpslng1=-0.168794 WHERE idmember = 636;</v>
       </c>
     </row>
@@ -9419,7 +9731,7 @@
         <v>-0.178979</v>
       </c>
       <c r="D570" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.494233, gpslng1=-0.178979 WHERE idmember = 637;</v>
       </c>
     </row>
@@ -9434,7 +9746,7 @@
         <v>-0.17102400000000001</v>
       </c>
       <c r="D571" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.498873, gpslng1=-0.171024 WHERE idmember = 638;</v>
       </c>
     </row>
@@ -9449,7 +9761,7 @@
         <v>-0.16706499999999999</v>
       </c>
       <c r="D572" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.499604, gpslng1=-0.167065 WHERE idmember = 639;</v>
       </c>
     </row>
@@ -9464,7 +9776,7 @@
         <v>-0.21035699999999999</v>
       </c>
       <c r="D573" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.507641, gpslng1=-0.210357 WHERE idmember = 640;</v>
       </c>
     </row>
@@ -9479,7 +9791,7 @@
         <v>-0.166986</v>
       </c>
       <c r="D574" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.494611, gpslng1=-0.166986 WHERE idmember = 642;</v>
       </c>
     </row>
@@ -9494,7 +9806,7 @@
         <v>-1.593202</v>
       </c>
       <c r="D575" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=54.233383, gpslng1=-1.593202 WHERE idmember = 643;</v>
       </c>
     </row>
@@ -9509,7 +9821,7 @@
         <v>-0.168351</v>
       </c>
       <c r="D576" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.500918, gpslng1=-0.168351 WHERE idmember = 644;</v>
       </c>
     </row>
@@ -9524,7 +9836,7 @@
         <v>-2.4273850000000001</v>
       </c>
       <c r="D577" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=52.691, gpslng1=-2.427385 WHERE idmember = 645;</v>
       </c>
     </row>
@@ -9539,7 +9851,7 @@
         <v>-0.17161599999999999</v>
       </c>
       <c r="D578" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UPDATE member SET gpslat1=51.49997, gpslng1=-0.171616 WHERE idmember = 647;</v>
       </c>
     </row>
@@ -9554,7 +9866,7 @@
         <v>-0.163962</v>
       </c>
       <c r="D579" t="str">
-        <f t="shared" ref="D579:D642" si="9">"UPDATE member SET gpslat1="&amp;B579&amp;", gpslng1="&amp;C579&amp;" WHERE idmember = "&amp;A579&amp;";"</f>
+        <f t="shared" ref="D579:D642" si="10">"UPDATE member SET gpslat1="&amp;B579&amp;", gpslng1="&amp;C579&amp;" WHERE idmember = "&amp;A579&amp;";"</f>
         <v>UPDATE member SET gpslat1=51.501343, gpslng1=-0.163962 WHERE idmember = 648;</v>
       </c>
     </row>
@@ -9569,7 +9881,7 @@
         <v>-0.174094</v>
       </c>
       <c r="D580" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.500912, gpslng1=-0.174094 WHERE idmember = 649;</v>
       </c>
     </row>
@@ -9584,7 +9896,7 @@
         <v>-0.166383</v>
       </c>
       <c r="D581" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.498786, gpslng1=-0.166383 WHERE idmember = 650;</v>
       </c>
     </row>
@@ -9599,7 +9911,7 @@
         <v>-0.16712299999999999</v>
       </c>
       <c r="D582" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.497277, gpslng1=-0.167123 WHERE idmember = 651;</v>
       </c>
     </row>
@@ -9614,7 +9926,7 @@
         <v>-0.178867</v>
       </c>
       <c r="D583" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.499969, gpslng1=-0.178867 WHERE idmember = 652;</v>
       </c>
     </row>
@@ -9629,7 +9941,7 @@
         <v>-0.16955400000000001</v>
       </c>
       <c r="D584" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.499175, gpslng1=-0.169554 WHERE idmember = 653;</v>
       </c>
     </row>
@@ -9644,7 +9956,7 @@
         <v>-0.16953499999999999</v>
       </c>
       <c r="D585" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.499061, gpslng1=-0.169535 WHERE idmember = 654;</v>
       </c>
     </row>
@@ -9659,7 +9971,7 @@
         <v>-0.16658899999999999</v>
       </c>
       <c r="D586" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.499579, gpslng1=-0.166589 WHERE idmember = 655;</v>
       </c>
     </row>
@@ -9674,7 +9986,7 @@
         <v>-0.164183</v>
       </c>
       <c r="D587" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.500179, gpslng1=-0.164183 WHERE idmember = 656;</v>
       </c>
     </row>
@@ -9689,7 +10001,7 @@
         <v>-0.14274200000000001</v>
       </c>
       <c r="D588" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.508173, gpslng1=-0.142742 WHERE idmember = 657;</v>
       </c>
     </row>
@@ -9704,7 +10016,7 @@
         <v>-0.16262199999999999</v>
       </c>
       <c r="D589" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.498122, gpslng1=-0.162622 WHERE idmember = 658;</v>
       </c>
     </row>
@@ -9719,7 +10031,7 @@
         <v>-0.16123299999999999</v>
       </c>
       <c r="D590" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.498432, gpslng1=-0.161233 WHERE idmember = 661;</v>
       </c>
     </row>
@@ -9734,7 +10046,7 @@
         <v>-0.166158</v>
       </c>
       <c r="D591" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.498886, gpslng1=-0.166158 WHERE idmember = 662;</v>
       </c>
     </row>
@@ -9749,7 +10061,7 @@
         <v>-0.15784400000000001</v>
       </c>
       <c r="D592" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.500712, gpslng1=-0.157844 WHERE idmember = 663;</v>
       </c>
     </row>
@@ -9764,7 +10076,7 @@
         <v>-0.16983699999999999</v>
       </c>
       <c r="D593" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.499045, gpslng1=-0.169837 WHERE idmember = 664;</v>
       </c>
     </row>
@@ -9779,7 +10091,7 @@
         <v>-0.16430800000000001</v>
       </c>
       <c r="D594" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.500427, gpslng1=-0.164308 WHERE idmember = 665;</v>
       </c>
     </row>
@@ -9794,7 +10106,7 @@
         <v>-0.17165</v>
       </c>
       <c r="D595" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.48753, gpslng1=-0.17165 WHERE idmember = 666;</v>
       </c>
     </row>
@@ -9809,7 +10121,7 @@
         <v>-0.15785199999999999</v>
       </c>
       <c r="D596" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.50121, gpslng1=-0.157852 WHERE idmember = 667;</v>
       </c>
     </row>
@@ -9824,7 +10136,7 @@
         <v>-0.17416499999999999</v>
       </c>
       <c r="D597" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.500058, gpslng1=-0.174165 WHERE idmember = 668;</v>
       </c>
     </row>
@@ -9839,7 +10151,7 @@
         <v>-0.174094</v>
       </c>
       <c r="D598" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.500912, gpslng1=-0.174094 WHERE idmember = 669;</v>
       </c>
     </row>
@@ -9854,7 +10166,7 @@
         <v>-0.16677500000000001</v>
       </c>
       <c r="D599" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.499901, gpslng1=-0.166775 WHERE idmember = 670;</v>
       </c>
     </row>
@@ -9869,7 +10181,7 @@
         <v>-0.16409799999999999</v>
       </c>
       <c r="D600" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.499885, gpslng1=-0.164098 WHERE idmember = 671;</v>
       </c>
     </row>
@@ -9884,7 +10196,7 @@
         <v>-0.16966300000000001</v>
       </c>
       <c r="D601" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.498248, gpslng1=-0.169663 WHERE idmember = 672;</v>
       </c>
     </row>
@@ -9899,7 +10211,7 @@
         <v>-0.179617</v>
       </c>
       <c r="D602" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.482271, gpslng1=-0.179617 WHERE idmember = 673;</v>
       </c>
     </row>
@@ -9914,7 +10226,7 @@
         <v>-0.16988700000000001</v>
       </c>
       <c r="D603" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.498911, gpslng1=-0.169887 WHERE idmember = 674;</v>
       </c>
     </row>
@@ -9929,7 +10241,7 @@
         <v>-0.171183</v>
       </c>
       <c r="D604" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.499377, gpslng1=-0.171183 WHERE idmember = 675;</v>
       </c>
     </row>
@@ -9944,7 +10256,7 @@
         <v>-0.177178</v>
       </c>
       <c r="D605" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.494364, gpslng1=-0.177178 WHERE idmember = 676;</v>
       </c>
     </row>
@@ -9959,7 +10271,7 @@
         <v>-0.168709</v>
       </c>
       <c r="D606" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.499089, gpslng1=-0.168709 WHERE idmember = 677;</v>
       </c>
     </row>
@@ -9974,7 +10286,7 @@
         <v>-0.172238</v>
       </c>
       <c r="D607" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.498314, gpslng1=-0.172238 WHERE idmember = 678;</v>
       </c>
     </row>
@@ -9989,7 +10301,7 @@
         <v>-0.17402400000000001</v>
       </c>
       <c r="D608" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.499705, gpslng1=-0.174024 WHERE idmember = 679;</v>
       </c>
     </row>
@@ -10004,7 +10316,7 @@
         <v>-0.17069000000000001</v>
       </c>
       <c r="D609" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.500287, gpslng1=-0.17069 WHERE idmember = 680;</v>
       </c>
     </row>
@@ -10019,7 +10331,7 @@
         <v>-0.165658</v>
       </c>
       <c r="D610" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.495765, gpslng1=-0.165658 WHERE idmember = 681;</v>
       </c>
     </row>
@@ -10034,7 +10346,7 @@
         <v>-0.178144</v>
       </c>
       <c r="D611" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.498653, gpslng1=-0.178144 WHERE idmember = 683;</v>
       </c>
     </row>
@@ -10049,7 +10361,7 @@
         <v>-0.170547</v>
       </c>
       <c r="D612" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.500161, gpslng1=-0.170547 WHERE idmember = 685;</v>
       </c>
     </row>
@@ -10064,7 +10376,7 @@
         <v>-0.161214</v>
       </c>
       <c r="D613" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.486932, gpslng1=-0.161214 WHERE idmember = 686;</v>
       </c>
     </row>
@@ -10079,7 +10391,7 @@
         <v>-0.169548</v>
       </c>
       <c r="D614" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.499288, gpslng1=-0.169548 WHERE idmember = 689;</v>
       </c>
     </row>
@@ -10094,7 +10406,7 @@
         <v>-0.16481699999999999</v>
       </c>
       <c r="D615" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.500904, gpslng1=-0.164817 WHERE idmember = 690;</v>
       </c>
     </row>
@@ -10109,7 +10421,7 @@
         <v>-0.15209700000000001</v>
       </c>
       <c r="D616" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.489652, gpslng1=-0.152097 WHERE idmember = 692;</v>
       </c>
     </row>
@@ -10124,7 +10436,7 @@
         <v>-0.16494700000000001</v>
       </c>
       <c r="D617" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.500442, gpslng1=-0.164947 WHERE idmember = 693;</v>
       </c>
     </row>
@@ -10139,7 +10451,7 @@
         <v>-0.16962099999999999</v>
       </c>
       <c r="D618" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.499406, gpslng1=-0.169621 WHERE idmember = 694;</v>
       </c>
     </row>
@@ -10154,7 +10466,7 @@
         <v>-0.16847599999999999</v>
       </c>
       <c r="D619" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.500971, gpslng1=-0.168476 WHERE idmember = 696;</v>
       </c>
     </row>
@@ -10169,7 +10481,7 @@
         <v>-0.16885700000000001</v>
       </c>
       <c r="D620" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.499156, gpslng1=-0.168857 WHERE idmember = 697;</v>
       </c>
     </row>
@@ -10184,7 +10496,7 @@
         <v>-0.16903099999999999</v>
       </c>
       <c r="D621" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.501722, gpslng1=-0.169031 WHERE idmember = 698;</v>
       </c>
     </row>
@@ -10199,7 +10511,7 @@
         <v>-0.16661999999999999</v>
       </c>
       <c r="D622" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.49956, gpslng1=-0.16662 WHERE idmember = 699;</v>
       </c>
     </row>
@@ -10214,7 +10526,7 @@
         <v>-0.17366500000000001</v>
       </c>
       <c r="D623" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.501642, gpslng1=-0.173665 WHERE idmember = 700;</v>
       </c>
     </row>
@@ -10229,7 +10541,7 @@
         <v>-0.154864</v>
       </c>
       <c r="D624" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.501824, gpslng1=-0.154864 WHERE idmember = 701;</v>
       </c>
     </row>
@@ -10244,7 +10556,7 @@
         <v>-0.17663999999999999</v>
       </c>
       <c r="D625" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.500339, gpslng1=-0.17664 WHERE idmember = 702;</v>
       </c>
     </row>
@@ -10259,7 +10571,7 @@
         <v>-0.170297</v>
       </c>
       <c r="D626" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.49903, gpslng1=-0.170297 WHERE idmember = 703;</v>
       </c>
     </row>
@@ -10274,7 +10586,7 @@
         <v>-0.16952500000000001</v>
       </c>
       <c r="D627" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.499234, gpslng1=-0.169525 WHERE idmember = 704;</v>
       </c>
     </row>
@@ -10289,7 +10601,7 @@
         <v>-0.17122999999999999</v>
       </c>
       <c r="D628" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.499954, gpslng1=-0.17123 WHERE idmember = 705;</v>
       </c>
     </row>
@@ -10304,7 +10616,7 @@
         <v>-0.172151</v>
       </c>
       <c r="D629" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.49869, gpslng1=-0.172151 WHERE idmember = 706;</v>
       </c>
     </row>
@@ -10319,7 +10631,7 @@
         <v>-0.17161599999999999</v>
       </c>
       <c r="D630" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.49997, gpslng1=-0.171616 WHERE idmember = 707;</v>
       </c>
     </row>
@@ -10334,7 +10646,7 @@
         <v>-0.170433</v>
       </c>
       <c r="D631" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.501564, gpslng1=-0.170433 WHERE idmember = 708;</v>
       </c>
     </row>
@@ -10349,7 +10661,7 @@
         <v>-0.17663999999999999</v>
       </c>
       <c r="D632" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.500339, gpslng1=-0.17664 WHERE idmember = 709;</v>
       </c>
     </row>
@@ -10364,7 +10676,7 @@
         <v>-2.188078</v>
       </c>
       <c r="D633" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.160641, gpslng1=-2.188078 WHERE idmember = 710;</v>
       </c>
     </row>
@@ -10379,7 +10691,7 @@
         <v>-0.17100799999999999</v>
       </c>
       <c r="D634" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.500584, gpslng1=-0.171008 WHERE idmember = 712;</v>
       </c>
     </row>
@@ -10394,7 +10706,7 @@
         <v>-0.171183</v>
       </c>
       <c r="D635" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.499377, gpslng1=-0.171183 WHERE idmember = 713;</v>
       </c>
     </row>
@@ -10409,7 +10721,7 @@
         <v>-0.17161599999999999</v>
       </c>
       <c r="D636" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.49997, gpslng1=-0.171616 WHERE idmember = 714;</v>
       </c>
     </row>
@@ -10424,7 +10736,7 @@
         <v>-0.16470199999999999</v>
       </c>
       <c r="D637" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.500429, gpslng1=-0.164702 WHERE idmember = 716;</v>
       </c>
     </row>
@@ -10439,7 +10751,7 @@
         <v>-0.16169700000000001</v>
       </c>
       <c r="D638" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.498389, gpslng1=-0.161697 WHERE idmember = 717;</v>
       </c>
     </row>
@@ -10454,7 +10766,7 @@
         <v>-0.15501400000000001</v>
       </c>
       <c r="D639" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.501065, gpslng1=-0.155014 WHERE idmember = 718;</v>
       </c>
     </row>
@@ -10469,7 +10781,7 @@
         <v>-0.16783699999999999</v>
       </c>
       <c r="D640" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.500676, gpslng1=-0.167837 WHERE idmember = 719;</v>
       </c>
     </row>
@@ -10484,7 +10796,7 @@
         <v>-0.175125</v>
       </c>
       <c r="D641" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.500629, gpslng1=-0.175125 WHERE idmember = 720;</v>
       </c>
     </row>
@@ -10499,7 +10811,7 @@
         <v>-0.18057300000000001</v>
       </c>
       <c r="D642" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UPDATE member SET gpslat1=51.497338, gpslng1=-0.180573 WHERE idmember = 721;</v>
       </c>
     </row>
@@ -10514,7 +10826,7 @@
         <v>-0.16778699999999999</v>
       </c>
       <c r="D643" t="str">
-        <f t="shared" ref="D643:D706" si="10">"UPDATE member SET gpslat1="&amp;B643&amp;", gpslng1="&amp;C643&amp;" WHERE idmember = "&amp;A643&amp;";"</f>
+        <f t="shared" ref="D643:D706" si="11">"UPDATE member SET gpslat1="&amp;B643&amp;", gpslng1="&amp;C643&amp;" WHERE idmember = "&amp;A643&amp;";"</f>
         <v>UPDATE member SET gpslat1=51.498702, gpslng1=-0.167787 WHERE idmember = 723;</v>
       </c>
     </row>
@@ -10529,7 +10841,7 @@
         <v>-0.16483</v>
       </c>
       <c r="D644" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.500343, gpslng1=-0.16483 WHERE idmember = 724;</v>
       </c>
     </row>
@@ -10544,7 +10856,7 @@
         <v>-0.16126199999999999</v>
       </c>
       <c r="D645" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.499356, gpslng1=-0.161262 WHERE idmember = 725;</v>
       </c>
     </row>
@@ -10559,7 +10871,7 @@
         <v>-0.16581499999999999</v>
       </c>
       <c r="D646" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.499755, gpslng1=-0.165815 WHERE idmember = 726;</v>
       </c>
     </row>
@@ -10574,7 +10886,7 @@
         <v>-0.17392199999999999</v>
       </c>
       <c r="D647" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.499075, gpslng1=-0.173922 WHERE idmember = 727;</v>
       </c>
     </row>
@@ -10589,7 +10901,7 @@
         <v>-0.17194100000000001</v>
       </c>
       <c r="D648" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.501625, gpslng1=-0.171941 WHERE idmember = 728;</v>
       </c>
     </row>
@@ -10604,7 +10916,7 @@
         <v>-0.17650399999999999</v>
       </c>
       <c r="D649" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.500963, gpslng1=-0.176504 WHERE idmember = 729;</v>
       </c>
     </row>
@@ -10619,7 +10931,7 @@
         <v>-0.167545</v>
       </c>
       <c r="D650" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.497148, gpslng1=-0.167545 WHERE idmember = 731;</v>
       </c>
     </row>
@@ -10634,7 +10946,7 @@
         <v>-0.163769</v>
       </c>
       <c r="D651" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.499865, gpslng1=-0.163769 WHERE idmember = 732;</v>
       </c>
     </row>
@@ -10649,7 +10961,7 @@
         <v>-0.17663999999999999</v>
       </c>
       <c r="D652" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.500339, gpslng1=-0.17664 WHERE idmember = 733;</v>
       </c>
     </row>
@@ -10664,7 +10976,7 @@
         <v>-0.22270499999999999</v>
       </c>
       <c r="D653" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.518203, gpslng1=-0.222705 WHERE idmember = 735;</v>
       </c>
     </row>
@@ -10679,7 +10991,7 @@
         <v>-0.171317</v>
       </c>
       <c r="D654" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.499768, gpslng1=-0.171317 WHERE idmember = 737;</v>
       </c>
     </row>
@@ -10694,7 +11006,7 @@
         <v>-0.16578899999999999</v>
       </c>
       <c r="D655" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.499662, gpslng1=-0.165789 WHERE idmember = 738;</v>
       </c>
     </row>
@@ -10709,7 +11021,7 @@
         <v>-0.16207199999999999</v>
       </c>
       <c r="D656" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.501548, gpslng1=-0.162072 WHERE idmember = 739;</v>
       </c>
     </row>
@@ -10724,7 +11036,7 @@
         <v>103.77775800000001</v>
       </c>
       <c r="D657" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=1.31978, gpslng1=103.777758 WHERE idmember = 740;</v>
       </c>
     </row>
@@ -10739,7 +11051,7 @@
         <v>-0.16783699999999999</v>
       </c>
       <c r="D658" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.500676, gpslng1=-0.167837 WHERE idmember = 742;</v>
       </c>
     </row>
@@ -10754,7 +11066,7 @@
         <v>-0.15818199999999999</v>
       </c>
       <c r="D659" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.502124, gpslng1=-0.158182 WHERE idmember = 743;</v>
       </c>
     </row>
@@ -10769,7 +11081,7 @@
         <v>-0.16514899999999999</v>
       </c>
       <c r="D660" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.496037, gpslng1=-0.165149 WHERE idmember = 744;</v>
       </c>
     </row>
@@ -10784,7 +11096,7 @@
         <v>-0.166689</v>
       </c>
       <c r="D661" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.50057, gpslng1=-0.166689 WHERE idmember = 746;</v>
       </c>
     </row>
@@ -10799,7 +11111,7 @@
         <v>-0.16103700000000001</v>
       </c>
       <c r="D662" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.496655, gpslng1=-0.161037 WHERE idmember = 747;</v>
       </c>
     </row>
@@ -10814,7 +11126,7 @@
         <v>-0.16692199999999999</v>
       </c>
       <c r="D663" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.500548, gpslng1=-0.166922 WHERE idmember = 748;</v>
       </c>
     </row>
@@ -10829,7 +11141,7 @@
         <v>-0.12673599999999999</v>
       </c>
       <c r="D664" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.496373, gpslng1=-0.126736 WHERE idmember = 749;</v>
       </c>
     </row>
@@ -10844,7 +11156,7 @@
         <v>-0.179312</v>
       </c>
       <c r="D665" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.500813, gpslng1=-0.179312 WHERE idmember = 750;</v>
       </c>
     </row>
@@ -10859,7 +11171,7 @@
         <v>-0.170233</v>
       </c>
       <c r="D666" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.499036, gpslng1=-0.170233 WHERE idmember = 751;</v>
       </c>
     </row>
@@ -10874,7 +11186,7 @@
         <v>-1.1614640000000001</v>
       </c>
       <c r="D667" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.091685, gpslng1=-1.161464 WHERE idmember = 752;</v>
       </c>
     </row>
@@ -10889,7 +11201,7 @@
         <v>-3.8120799999999999</v>
       </c>
       <c r="D668" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=50.24417, gpslng1=-3.81208 WHERE idmember = 753;</v>
       </c>
     </row>
@@ -10904,7 +11216,7 @@
         <v>-0.16378000000000001</v>
       </c>
       <c r="D669" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.543197, gpslng1=-0.16378 WHERE idmember = 754;</v>
       </c>
     </row>
@@ -10919,7 +11231,7 @@
         <v>-0.16617599999999999</v>
       </c>
       <c r="D670" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.498563, gpslng1=-0.166176 WHERE idmember = 755;</v>
       </c>
     </row>
@@ -10934,7 +11246,7 @@
         <v>-0.167657</v>
       </c>
       <c r="D671" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.501116, gpslng1=-0.167657 WHERE idmember = 756;</v>
       </c>
     </row>
@@ -10949,7 +11261,7 @@
         <v>-0.13897999999999999</v>
       </c>
       <c r="D672" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.493407, gpslng1=-0.13898 WHERE idmember = 757;</v>
       </c>
     </row>
@@ -10964,7 +11276,7 @@
         <v>0.18990799999999999</v>
       </c>
       <c r="D673" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.272716, gpslng1=0.189908 WHERE idmember = 758;</v>
       </c>
     </row>
@@ -10979,7 +11291,7 @@
         <v>-0.166408</v>
       </c>
       <c r="D674" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.499457, gpslng1=-0.166408 WHERE idmember = 760;</v>
       </c>
     </row>
@@ -10994,7 +11306,7 @@
         <v>-0.164885</v>
       </c>
       <c r="D675" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.500983, gpslng1=-0.164885 WHERE idmember = 761;</v>
       </c>
     </row>
@@ -11009,7 +11321,7 @@
         <v>-0.16469300000000001</v>
       </c>
       <c r="D676" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.500685, gpslng1=-0.164693 WHERE idmember = 762;</v>
       </c>
     </row>
@@ -11024,7 +11336,7 @@
         <v>-0.168461</v>
       </c>
       <c r="D677" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.501318, gpslng1=-0.168461 WHERE idmember = 763;</v>
       </c>
     </row>
@@ -11039,7 +11351,7 @@
         <v>-0.17650399999999999</v>
       </c>
       <c r="D678" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.500963, gpslng1=-0.176504 WHERE idmember = 764;</v>
       </c>
     </row>
@@ -11054,7 +11366,7 @@
         <v>-0.16802700000000001</v>
       </c>
       <c r="D679" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.498582, gpslng1=-0.168027 WHERE idmember = 765;</v>
       </c>
     </row>
@@ -11069,7 +11381,7 @@
         <v>-0.14787400000000001</v>
       </c>
       <c r="D680" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.508106, gpslng1=-0.147874 WHERE idmember = 766;</v>
       </c>
     </row>
@@ -11084,7 +11396,7 @@
         <v>-0.15693599999999999</v>
       </c>
       <c r="D681" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.501454, gpslng1=-0.156936 WHERE idmember = 767;</v>
       </c>
     </row>
@@ -11099,7 +11411,7 @@
         <v>-0.167492</v>
       </c>
       <c r="D682" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.499997, gpslng1=-0.167492 WHERE idmember = 768;</v>
       </c>
     </row>
@@ -11114,7 +11426,7 @@
         <v>-0.17069000000000001</v>
       </c>
       <c r="D683" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.500287, gpslng1=-0.17069 WHERE idmember = 769;</v>
       </c>
     </row>
@@ -11129,7 +11441,7 @@
         <v>8.1309999999999993E-3</v>
       </c>
       <c r="D684" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.46508, gpslng1=0.008131 WHERE idmember = 770;</v>
       </c>
     </row>
@@ -11144,7 +11456,7 @@
         <v>-0.16914699999999999</v>
       </c>
       <c r="D685" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.499533, gpslng1=-0.169147 WHERE idmember = 771;</v>
       </c>
     </row>
@@ -11159,7 +11471,7 @@
         <v>-0.167911</v>
       </c>
       <c r="D686" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.499498, gpslng1=-0.167911 WHERE idmember = 772;</v>
       </c>
     </row>
@@ -11174,7 +11486,7 @@
         <v>-0.17127500000000001</v>
       </c>
       <c r="D687" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.499418, gpslng1=-0.171275 WHERE idmember = 774;</v>
       </c>
     </row>
@@ -11189,7 +11501,7 @@
         <v>-0.166079</v>
       </c>
       <c r="D688" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.499693, gpslng1=-0.166079 WHERE idmember = 775;</v>
       </c>
     </row>
@@ -11204,7 +11516,7 @@
         <v>-0.16520499999999999</v>
       </c>
       <c r="D689" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.500487, gpslng1=-0.165205 WHERE idmember = 776;</v>
       </c>
     </row>
@@ -11219,7 +11531,7 @@
         <v>-0.16549</v>
       </c>
       <c r="D690" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.500167, gpslng1=-0.16549 WHERE idmember = 777;</v>
       </c>
     </row>
@@ -11234,7 +11546,7 @@
         <v>-0.16783699999999999</v>
       </c>
       <c r="D691" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.500676, gpslng1=-0.167837 WHERE idmember = 778;</v>
       </c>
     </row>
@@ -11249,7 +11561,7 @@
         <v>-0.16794100000000001</v>
       </c>
       <c r="D692" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.494965, gpslng1=-0.167941 WHERE idmember = 834;</v>
       </c>
     </row>
@@ -11264,7 +11576,7 @@
         <v>-0.15723500000000001</v>
       </c>
       <c r="D693" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.494106, gpslng1=-0.157235 WHERE idmember = 835;</v>
       </c>
     </row>
@@ -11279,7 +11591,7 @@
         <v>-0.16859299999999999</v>
       </c>
       <c r="D694" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.499593, gpslng1=-0.168593 WHERE idmember = 836;</v>
       </c>
     </row>
@@ -11294,7 +11606,7 @@
         <v>-0.15723500000000001</v>
       </c>
       <c r="D695" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.494106, gpslng1=-0.157235 WHERE idmember = 837;</v>
       </c>
     </row>
@@ -11309,7 +11621,7 @@
         <v>-0.200542</v>
       </c>
       <c r="D696" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.498808, gpslng1=-0.200542 WHERE idmember = 839;</v>
       </c>
     </row>
@@ -11324,7 +11636,7 @@
         <v>-0.189361</v>
       </c>
       <c r="D697" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.500811, gpslng1=-0.189361 WHERE idmember = 840;</v>
       </c>
     </row>
@@ -11339,7 +11651,7 @@
         <v>-0.166739</v>
       </c>
       <c r="D698" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.499727, gpslng1=-0.166739 WHERE idmember = 841;</v>
       </c>
     </row>
@@ -11354,7 +11666,7 @@
         <v>-0.77817800000000004</v>
       </c>
       <c r="D699" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=50.835228, gpslng1=-0.778178 WHERE idmember = 842;</v>
       </c>
     </row>
@@ -11369,7 +11681,7 @@
         <v>-0.162081</v>
       </c>
       <c r="D700" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.496682, gpslng1=-0.162081 WHERE idmember = 843;</v>
       </c>
     </row>
@@ -11384,7 +11696,7 @@
         <v>-0.163636</v>
       </c>
       <c r="D701" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.500728, gpslng1=-0.163636 WHERE idmember = 844;</v>
       </c>
     </row>
@@ -11399,7 +11711,7 @@
         <v>-0.163413</v>
       </c>
       <c r="D702" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.497834, gpslng1=-0.163413 WHERE idmember = 845;</v>
       </c>
     </row>
@@ -11414,7 +11726,7 @@
         <v>-0.18119099999999999</v>
       </c>
       <c r="D703" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.500291, gpslng1=-0.181191 WHERE idmember = 846;</v>
       </c>
     </row>
@@ -11429,7 +11741,7 @@
         <v>-0.18049899999999999</v>
       </c>
       <c r="D704" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.496792, gpslng1=-0.180499 WHERE idmember = 847;</v>
       </c>
     </row>
@@ -11444,7 +11756,7 @@
         <v>-0.166598</v>
       </c>
       <c r="D705" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.498355, gpslng1=-0.166598 WHERE idmember = 848;</v>
       </c>
     </row>
@@ -11459,7 +11771,7 @@
         <v>-0.17013400000000001</v>
       </c>
       <c r="D706" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>UPDATE member SET gpslat1=51.500062, gpslng1=-0.170134 WHERE idmember = 849;</v>
       </c>
     </row>
@@ -11474,7 +11786,7 @@
         <v>-0.16470399999999999</v>
       </c>
       <c r="D707" t="str">
-        <f t="shared" ref="D707:D748" si="11">"UPDATE member SET gpslat1="&amp;B707&amp;", gpslng1="&amp;C707&amp;" WHERE idmember = "&amp;A707&amp;";"</f>
+        <f t="shared" ref="D707:D748" si="12">"UPDATE member SET gpslat1="&amp;B707&amp;", gpslng1="&amp;C707&amp;" WHERE idmember = "&amp;A707&amp;";"</f>
         <v>UPDATE member SET gpslat1=51.497642, gpslng1=-0.164704 WHERE idmember = 850;</v>
       </c>
     </row>
@@ -11489,7 +11801,7 @@
         <v>-0.16736100000000001</v>
       </c>
       <c r="D708" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.49945, gpslng1=-0.167361 WHERE idmember = 851;</v>
       </c>
     </row>
@@ -11504,7 +11816,7 @@
         <v>-0.16683300000000001</v>
       </c>
       <c r="D709" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.497438, gpslng1=-0.166833 WHERE idmember = 855;</v>
       </c>
     </row>
@@ -11519,7 +11831,7 @@
         <v>-0.168293</v>
       </c>
       <c r="D710" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.498946, gpslng1=-0.168293 WHERE idmember = 856;</v>
       </c>
     </row>
@@ -11534,7 +11846,7 @@
         <v>-0.16147800000000001</v>
       </c>
       <c r="D711" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.499126, gpslng1=-0.161478 WHERE idmember = 857;</v>
       </c>
     </row>
@@ -11549,7 +11861,7 @@
         <v>-0.167104</v>
       </c>
       <c r="D712" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.499811, gpslng1=-0.167104 WHERE idmember = 873;</v>
       </c>
     </row>
@@ -11564,7 +11876,7 @@
         <v>-0.166687</v>
       </c>
       <c r="D713" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.499422, gpslng1=-0.166687 WHERE idmember = 874;</v>
       </c>
     </row>
@@ -11579,7 +11891,7 @@
         <v>-1.9669650000000001</v>
       </c>
       <c r="D714" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.714759, gpslng1=-1.966965 WHERE idmember = 875;</v>
       </c>
     </row>
@@ -11594,7 +11906,7 @@
         <v>-0.16816400000000001</v>
       </c>
       <c r="D715" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.498666, gpslng1=-0.168164 WHERE idmember = 878;</v>
       </c>
     </row>
@@ -11609,7 +11921,7 @@
         <v>-0.17907799999999999</v>
       </c>
       <c r="D716" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.491009, gpslng1=-0.179078 WHERE idmember = 879;</v>
       </c>
     </row>
@@ -11624,7 +11936,7 @@
         <v>-0.17595</v>
       </c>
       <c r="D717" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.514091, gpslng1=-0.17595 WHERE idmember = 880;</v>
       </c>
     </row>
@@ -11639,7 +11951,7 @@
         <v>-0.16459599999999999</v>
       </c>
       <c r="D718" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.497967, gpslng1=-0.164596 WHERE idmember = 881;</v>
       </c>
     </row>
@@ -11654,7 +11966,7 @@
         <v>-0.25775900000000002</v>
       </c>
       <c r="D719" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.500793, gpslng1=-0.257759 WHERE idmember = 882;</v>
       </c>
     </row>
@@ -11669,7 +11981,7 @@
         <v>-0.25457000000000002</v>
       </c>
       <c r="D720" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.500799, gpslng1=-0.25457 WHERE idmember = 884;</v>
       </c>
     </row>
@@ -11684,7 +11996,7 @@
         <v>-0.168018</v>
       </c>
       <c r="D721" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.499275, gpslng1=-0.168018 WHERE idmember = 885;</v>
       </c>
     </row>
@@ -11699,7 +12011,7 @@
         <v>-0.15736900000000001</v>
       </c>
       <c r="D722" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.49695, gpslng1=-0.157369 WHERE idmember = 886;</v>
       </c>
     </row>
@@ -11714,7 +12026,7 @@
         <v>-0.165661</v>
       </c>
       <c r="D723" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.499463, gpslng1=-0.165661 WHERE idmember = 887;</v>
       </c>
     </row>
@@ -11729,7 +12041,7 @@
         <v>-0.165661</v>
       </c>
       <c r="D724" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.499463, gpslng1=-0.165661 WHERE idmember = 888;</v>
       </c>
     </row>
@@ -11744,7 +12056,7 @@
         <v>-0.170433</v>
       </c>
       <c r="D725" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.501564, gpslng1=-0.170433 WHERE idmember = 889;</v>
       </c>
     </row>
@@ -11759,7 +12071,7 @@
         <v>-0.170206</v>
       </c>
       <c r="D726" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.500058, gpslng1=-0.170206 WHERE idmember = 893;</v>
       </c>
     </row>
@@ -11774,7 +12086,7 @@
         <v>-0.16658899999999999</v>
       </c>
       <c r="D727" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.499579, gpslng1=-0.166589 WHERE idmember = 895;</v>
       </c>
     </row>
@@ -11789,7 +12101,7 @@
         <v>7.3532E-2</v>
       </c>
       <c r="D728" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.539392, gpslng1=0.073532 WHERE idmember = 896;</v>
       </c>
     </row>
@@ -11804,7 +12116,7 @@
         <v>-0.192713</v>
       </c>
       <c r="D729" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.496571, gpslng1=-0.192713 WHERE idmember = 897;</v>
       </c>
     </row>
@@ -11819,7 +12131,7 @@
         <v>-0.162772</v>
       </c>
       <c r="D730" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.496969, gpslng1=-0.162772 WHERE idmember = 898;</v>
       </c>
     </row>
@@ -11834,7 +12146,7 @@
         <v>-0.16505500000000001</v>
       </c>
       <c r="D731" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.497615, gpslng1=-0.165055 WHERE idmember = 900;</v>
       </c>
     </row>
@@ -11849,7 +12161,7 @@
         <v>-0.16523199999999999</v>
       </c>
       <c r="D732" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.499184, gpslng1=-0.165232 WHERE idmember = 901;</v>
       </c>
     </row>
@@ -11864,7 +12176,7 @@
         <v>-0.16581499999999999</v>
       </c>
       <c r="D733" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.499755, gpslng1=-0.165815 WHERE idmember = 902;</v>
       </c>
     </row>
@@ -11879,7 +12191,7 @@
         <v>-0.17161599999999999</v>
       </c>
       <c r="D734" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.49997, gpslng1=-0.171616 WHERE idmember = 903;</v>
       </c>
     </row>
@@ -11894,7 +12206,7 @@
         <v>-0.16807800000000001</v>
       </c>
       <c r="D735" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.498692, gpslng1=-0.168078 WHERE idmember = 904;</v>
       </c>
     </row>
@@ -11909,7 +12221,7 @@
         <v>-0.16323399999999999</v>
       </c>
       <c r="D736" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.499406, gpslng1=-0.163234 WHERE idmember = 905;</v>
       </c>
     </row>
@@ -11924,7 +12236,7 @@
         <v>-0.16783699999999999</v>
       </c>
       <c r="D737" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.500676, gpslng1=-0.167837 WHERE idmember = 907;</v>
       </c>
     </row>
@@ -11939,7 +12251,7 @@
         <v>-0.16783699999999999</v>
       </c>
       <c r="D738" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.500676, gpslng1=-0.167837 WHERE idmember = 908;</v>
       </c>
     </row>
@@ -11954,7 +12266,7 @@
         <v>-0.166965</v>
       </c>
       <c r="D739" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.499387, gpslng1=-0.166965 WHERE idmember = 909;</v>
       </c>
     </row>
@@ -11969,7 +12281,7 @@
         <v>-0.165573</v>
       </c>
       <c r="D740" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.499406, gpslng1=-0.165573 WHERE idmember = 910;</v>
       </c>
     </row>
@@ -11984,7 +12296,7 @@
         <v>-0.16433800000000001</v>
       </c>
       <c r="D741" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.500743, gpslng1=-0.164338 WHERE idmember = 911;</v>
       </c>
     </row>
@@ -11999,7 +12311,7 @@
         <v>-0.16481699999999999</v>
       </c>
       <c r="D742" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.500904, gpslng1=-0.164817 WHERE idmember = 912;</v>
       </c>
     </row>
@@ -12014,7 +12326,7 @@
         <v>-0.16154199999999999</v>
       </c>
       <c r="D743" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.524475, gpslng1=-0.161542 WHERE idmember = 913;</v>
       </c>
     </row>
@@ -12029,7 +12341,7 @@
         <v>-0.167911</v>
       </c>
       <c r="D744" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.499498, gpslng1=-0.167911 WHERE idmember = 914;</v>
       </c>
     </row>
@@ -12044,7 +12356,7 @@
         <v>-0.179866</v>
       </c>
       <c r="D745" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.500785, gpslng1=-0.179866 WHERE idmember = 917;</v>
       </c>
     </row>
@@ -12059,7 +12371,7 @@
         <v>-0.16207199999999999</v>
       </c>
       <c r="D746" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.501548, gpslng1=-0.162072 WHERE idmember = 918;</v>
       </c>
     </row>
@@ -12074,7 +12386,7 @@
         <v>-0.16717599999999999</v>
       </c>
       <c r="D747" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.4927, gpslng1=-0.167176 WHERE idmember = 920;</v>
       </c>
     </row>
@@ -12089,7 +12401,7 @@
         <v>-0.16772400000000001</v>
       </c>
       <c r="D748" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>UPDATE member SET gpslat1=51.501215, gpslng1=-0.167724 WHERE idmember = 921;</v>
       </c>
     </row>
